--- a/data/nc/conditional_sampling_ncdmf/datasheets/cond_d1.xlsx
+++ b/data/nc/conditional_sampling_ncdmf/datasheets/cond_d1.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahaines\Desktop\Method Comparison\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megancarr/Documents/400_data_analytics/shellbase_bal/data/nc/conditional_sampling_ncdmf/datasheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980AB4B4-34A8-FC49-B8C4-19AB0A2E47DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="75" windowWidth="14730" windowHeight="15285" activeTab="1"/>
+    <workbookView xWindow="7860" yWindow="500" windowWidth="14740" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan 93 - Oct 05" sheetId="1" r:id="rId1"/>
     <sheet name="Oct 05 --&gt;" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_Dist_Bin" hidden="1">'Jan 93 - Oct 05'!$H$36:$H$37</definedName>
@@ -31,17 +31,6 @@
     <definedName name="Print_Titles_MI" localSheetId="0">'Jan 93 - Oct 05'!$A:$B</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -93,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -333,6 +322,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -368,6 +374,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -543,28 +566,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1" codeName="Sheet1"/>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView defaultGridColor="0" colorId="22" zoomScale="80" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="IL1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="GX15" sqref="GX15"/>
+    <sheetView tabSelected="1" defaultGridColor="0" colorId="22" zoomScale="80" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="141" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="143" max="205" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="8.33203125" customWidth="1"/>
-    <col min="207" max="253" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="254" max="255" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="141" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="143" max="205" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="8.28515625" customWidth="1"/>
+    <col min="207" max="253" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="254" max="255" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="6" customFormat="1">
+    <row r="1" spans="1:256" s="6" customFormat="1" ht="16">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -7874,22 +7897,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:JX29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="JP1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="JX5" sqref="JX5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="36" width="8.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="8.88671875" style="23"/>
+    <col min="1" max="1" width="13.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="36" width="8.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="8.85546875" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:284" s="17" customFormat="1">
@@ -12110,7 +12133,7 @@
       <c r="J29" s="23"/>
     </row>
   </sheetData>
-  <sortState ref="A2:GU29">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:GU29">
     <sortCondition ref="A2:A29"/>
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -12126,19 +12149,4 @@
     <oddHeader>&amp;L&amp;"Tahoma,Bold"&amp;14D1, BEAR CREEK &amp;C&amp;"Tahoma,Bold"&amp;14CONDITIONAL SAMPLES&amp;R&amp;"Tahoma,Bold"&amp;14OCT. 27, 2006 ---&gt;</oddHeader>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/data/nc/conditional_sampling_ncdmf/datasheets/cond_d1.xlsx
+++ b/data/nc/conditional_sampling_ncdmf/datasheets/cond_d1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10323"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megancarr/Documents/400_data_analytics/shellbase_bal/data/nc/conditional_sampling_ncdmf/datasheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megancarr/Documents/data_analytics_research/shellbase_with_usc/data/nc/conditional_sampling_ncdmf/datasheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980AB4B4-34A8-FC49-B8C4-19AB0A2E47DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BEB508-A9A6-9B49-9754-4FC46289C38C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7860" yWindow="500" windowWidth="14740" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,25 +17,25 @@
     <sheet name="Oct 05 --&gt;" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_Dist_Bin" hidden="1">'Jan 93 - Oct 05'!$H$36:$H$37</definedName>
-    <definedName name="_Dist_Values" hidden="1">'Jan 93 - Oct 05'!$F$2:$F$30</definedName>
-    <definedName name="_Key1" hidden="1">'Jan 93 - Oct 05'!$A$987</definedName>
-    <definedName name="_Key2" hidden="1">'Jan 93 - Oct 05'!$B$990</definedName>
+    <definedName name="_Dist_Bin" hidden="1">'Jan 93 - Oct 05'!$I$36:$I$37</definedName>
+    <definedName name="_Dist_Values" hidden="1">'Jan 93 - Oct 05'!$G$2:$G$30</definedName>
+    <definedName name="_Key1" hidden="1">'Jan 93 - Oct 05'!$B$987</definedName>
+    <definedName name="_Key2" hidden="1">'Jan 93 - Oct 05'!$C$990</definedName>
     <definedName name="_Order1" hidden="1">0</definedName>
     <definedName name="_Order2" hidden="1">255</definedName>
-    <definedName name="_Sort" hidden="1">'Jan 93 - Oct 05'!$A$2:$G$1009</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Jan 93 - Oct 05'!$C$1:$IP$14</definedName>
+    <definedName name="_Sort" hidden="1">'Jan 93 - Oct 05'!$B$2:$H$1009</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Jan 93 - Oct 05'!$D$1:$IQ$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Oct 05 --&gt;'!$AE$1:$AT$14</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Jan 93 - Oct 05'!$A:$B</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Jan 93 - Oct 05'!$B:$C</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Oct 05 --&gt;'!$B:$C</definedName>
-    <definedName name="Print_Titles_MI" localSheetId="0">'Jan 93 - Oct 05'!$A:$B</definedName>
+    <definedName name="Print_Titles_MI" localSheetId="0">'Jan 93 - Oct 05'!$B:$C</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>STATION</t>
   </si>
@@ -568,961 +568,963 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1" codeName="Sheet1"/>
-  <dimension ref="A1:IV30"/>
+  <dimension ref="A1:IW30"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" colorId="22" zoomScale="80" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="F25" sqref="F25"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="141" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="143" max="205" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="8.28515625" customWidth="1"/>
-    <col min="207" max="253" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="254" max="255" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="142" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="144" max="206" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="8.28515625" customWidth="1"/>
+    <col min="208" max="254" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="255" max="256" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="6" customFormat="1" ht="16">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:257" s="6" customFormat="1" ht="16">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8">
+      <c r="D1" s="8">
         <f>DATE(93,1,15)</f>
         <v>33984</v>
       </c>
-      <c r="D1" s="8">
+      <c r="E1" s="8">
         <f>DATE(93,1,21)</f>
         <v>33990</v>
       </c>
-      <c r="E1" s="8">
+      <c r="F1" s="8">
         <f>DATE(93,2,9)</f>
         <v>34009</v>
       </c>
-      <c r="F1" s="8">
+      <c r="G1" s="8">
         <f>DATE(93,2,15)</f>
         <v>34015</v>
       </c>
-      <c r="G1" s="8">
+      <c r="H1" s="8">
         <f>DATE(93,2,18)</f>
         <v>34018</v>
       </c>
-      <c r="H1" s="8">
+      <c r="I1" s="8">
         <f>DATE(93,3,16)</f>
         <v>34044</v>
       </c>
-      <c r="I1" s="8">
+      <c r="J1" s="8">
         <f>DATE(93,3,29)</f>
         <v>34057</v>
       </c>
-      <c r="J1" s="8">
+      <c r="K1" s="8">
         <f>DATE(93,4,1)</f>
         <v>34060</v>
       </c>
-      <c r="K1" s="8">
+      <c r="L1" s="8">
         <f>DATE(93,4,9)</f>
         <v>34068</v>
       </c>
-      <c r="L1" s="8">
+      <c r="M1" s="8">
         <f>DATE(93,7,6)</f>
         <v>34156</v>
       </c>
-      <c r="M1" s="8">
+      <c r="N1" s="8">
         <f>DATE(93,7,26)</f>
         <v>34176</v>
       </c>
-      <c r="N1" s="8">
+      <c r="O1" s="8">
         <f>DATE(93,8,2)</f>
         <v>34183</v>
       </c>
-      <c r="O1" s="8">
+      <c r="P1" s="8">
         <f>DATE(93,8,19)</f>
         <v>34200</v>
       </c>
-      <c r="P1" s="8">
+      <c r="Q1" s="8">
         <f>DATE(93,8,23)</f>
         <v>34204</v>
       </c>
-      <c r="Q1" s="8">
+      <c r="R1" s="8">
         <f>DATE(93,9,7)</f>
         <v>34219</v>
       </c>
-      <c r="R1" s="8">
+      <c r="S1" s="8">
         <f>DATE(93,10,18)</f>
         <v>34260</v>
       </c>
-      <c r="S1" s="8">
+      <c r="T1" s="8">
         <f>DATE(93,10,29)</f>
         <v>34271</v>
       </c>
-      <c r="T1" s="8">
+      <c r="U1" s="8">
         <f>DATE(93,11,1)</f>
         <v>34274</v>
       </c>
-      <c r="U1" s="8">
+      <c r="V1" s="8">
         <f>DATE(93,11,29)</f>
         <v>34302</v>
       </c>
-      <c r="V1" s="8">
+      <c r="W1" s="8">
         <f>DATE(93,12,2)</f>
         <v>34305</v>
       </c>
-      <c r="W1" s="8">
+      <c r="X1" s="8">
         <f>DATE(94,1,5)</f>
         <v>34339</v>
       </c>
-      <c r="X1" s="8">
+      <c r="Y1" s="8">
         <f>DATE(94,1,7)</f>
         <v>34341</v>
       </c>
-      <c r="Y1" s="8">
+      <c r="Z1" s="8">
         <f>DATE(94,1,18)</f>
         <v>34352</v>
       </c>
-      <c r="Z1" s="8">
+      <c r="AA1" s="8">
         <f>DATE(94,2,3)</f>
         <v>34368</v>
       </c>
-      <c r="AA1" s="8">
+      <c r="AB1" s="8">
         <f>DATE(94,3,6)</f>
         <v>34399</v>
       </c>
-      <c r="AB1" s="8">
+      <c r="AC1" s="8">
         <f>DATE(94,3,9)</f>
         <v>34402</v>
       </c>
-      <c r="AC1" s="8">
+      <c r="AD1" s="8">
         <f>DATE(94,8,17)</f>
         <v>34563</v>
       </c>
-      <c r="AD1" s="8">
+      <c r="AE1" s="8">
         <f>DATE(94,8,22)</f>
         <v>34568</v>
       </c>
-      <c r="AE1" s="8">
+      <c r="AF1" s="8">
         <f>DATE(94,9,14)</f>
         <v>34591</v>
       </c>
-      <c r="AF1" s="8">
+      <c r="AG1" s="8">
         <f>DATE(94,9,20)</f>
         <v>34597</v>
       </c>
-      <c r="AG1" s="8">
+      <c r="AH1" s="8">
         <f>DATE(94,10,18)</f>
         <v>34625</v>
       </c>
-      <c r="AH1" s="8">
+      <c r="AI1" s="8">
         <f>DATE(94,11,21)</f>
         <v>34659</v>
       </c>
-      <c r="AI1" s="8">
+      <c r="AJ1" s="8">
         <f>DATE(94,11,30)</f>
         <v>34668</v>
       </c>
-      <c r="AJ1" s="8">
+      <c r="AK1" s="8">
         <f>DATE(94,12,1)</f>
         <v>34669</v>
       </c>
-      <c r="AK1" s="8">
+      <c r="AL1" s="8">
         <f>DATE(94,12,27)</f>
         <v>34695</v>
       </c>
-      <c r="AL1" s="8">
+      <c r="AM1" s="8">
         <f>DATE(94,12,29)</f>
         <v>34697</v>
       </c>
-      <c r="AM1" s="8">
+      <c r="AN1" s="8">
         <f>DATE(95,1,9)</f>
         <v>34708</v>
       </c>
-      <c r="AN1" s="8">
+      <c r="AO1" s="8">
         <f>DATE(95,1,12)</f>
         <v>34711</v>
       </c>
-      <c r="AO1" s="8">
+      <c r="AP1" s="8">
         <f>DATE(95,1,18)</f>
         <v>34717</v>
       </c>
-      <c r="AP1" s="8">
+      <c r="AQ1" s="8">
         <f>DATE(95,1,23)</f>
         <v>34722</v>
       </c>
-      <c r="AQ1" s="8">
+      <c r="AR1" s="8">
         <f>DATE(95,1,25)</f>
         <v>34724</v>
       </c>
-      <c r="AR1" s="8">
+      <c r="AS1" s="8">
         <f>DATE(95,2,13)</f>
         <v>34743</v>
       </c>
-      <c r="AS1" s="8">
+      <c r="AT1" s="8">
         <f>DATE(95,6,9)</f>
         <v>34859</v>
       </c>
-      <c r="AT1" s="8">
+      <c r="AU1" s="8">
         <f>DATE(95,6,20)</f>
         <v>34870</v>
       </c>
-      <c r="AU1" s="8">
+      <c r="AV1" s="8">
         <f>DATE(95,6,26)</f>
         <v>34876</v>
       </c>
-      <c r="AV1" s="8">
+      <c r="AW1" s="8">
         <f>DATE(95,8,28)</f>
         <v>34939</v>
       </c>
-      <c r="AW1" s="8">
+      <c r="AX1" s="8">
         <f>DATE(95,9,12)</f>
         <v>34954</v>
       </c>
-      <c r="AX1" s="8">
+      <c r="AY1" s="8">
         <f>DATE(96,1,30)</f>
         <v>35094</v>
       </c>
-      <c r="AY1" s="8">
+      <c r="AZ1" s="8">
         <f>DATE(96,2,2)</f>
         <v>35097</v>
       </c>
-      <c r="AZ1" s="8">
+      <c r="BA1" s="8">
         <f>DATE(96,2,6)</f>
         <v>35101</v>
       </c>
-      <c r="BA1" s="8">
+      <c r="BB1" s="8">
         <f>DATE(96,4,2)</f>
         <v>35157</v>
       </c>
-      <c r="BB1" s="8">
+      <c r="BC1" s="8">
         <f>DATE(96,4,3)</f>
         <v>35158</v>
       </c>
-      <c r="BC1" s="8">
+      <c r="BD1" s="8">
         <f>DATE(96,5,13)</f>
         <v>35198</v>
       </c>
-      <c r="BD1" s="8">
+      <c r="BE1" s="8">
         <f>DATE(96,6,28)</f>
         <v>35244</v>
       </c>
-      <c r="BE1" s="8">
+      <c r="BF1" s="8">
         <f>DATE(96,7,1)</f>
         <v>35247</v>
       </c>
-      <c r="BF1" s="8">
+      <c r="BG1" s="8">
         <f>DATE(96,7,19)</f>
         <v>35265</v>
       </c>
-      <c r="BG1" s="8">
+      <c r="BH1" s="8">
         <f>DATE(96,7,29)</f>
         <v>35275</v>
       </c>
-      <c r="BH1" s="8">
+      <c r="BI1" s="8">
         <f>DATE(96,8,1)</f>
         <v>35278</v>
       </c>
-      <c r="BI1" s="8">
+      <c r="BJ1" s="8">
         <f>DATE(96,8,5)</f>
         <v>35282</v>
       </c>
-      <c r="BJ1" s="8">
+      <c r="BK1" s="8">
         <f>DATE(96,8,12)</f>
         <v>35289</v>
       </c>
-      <c r="BK1" s="8">
+      <c r="BL1" s="8">
         <f>DATE(96,8,14)</f>
         <v>35291</v>
       </c>
-      <c r="BL1" s="8">
+      <c r="BM1" s="8">
         <f>DATE(96,8,19)</f>
         <v>35296</v>
       </c>
-      <c r="BM1" s="8">
+      <c r="BN1" s="8">
         <f>DATE(96,9,12)</f>
         <v>35320</v>
       </c>
-      <c r="BN1" s="8">
+      <c r="BO1" s="8">
         <f>DATE(96,9,19)</f>
         <v>35327</v>
       </c>
-      <c r="BO1" s="8">
+      <c r="BP1" s="8">
         <f>DATE(96,9,21)</f>
         <v>35329</v>
       </c>
-      <c r="BP1" s="8">
+      <c r="BQ1" s="8">
         <f>DATE(96,9,24)</f>
         <v>35332</v>
       </c>
-      <c r="BQ1" s="8">
+      <c r="BR1" s="8">
         <f>DATE(96,9,25)</f>
         <v>35333</v>
       </c>
-      <c r="BR1" s="8">
+      <c r="BS1" s="8">
         <f>DATE(96,10,14)</f>
         <v>35352</v>
       </c>
-      <c r="BS1" s="8">
+      <c r="BT1" s="8">
         <f>DATE(96,12,2)</f>
         <v>35401</v>
       </c>
-      <c r="BT1" s="8">
+      <c r="BU1" s="8">
         <f>DATE(97,2,17)</f>
         <v>35478</v>
       </c>
-      <c r="BU1" s="8">
+      <c r="BV1" s="8">
         <f>DATE(97,2,20)</f>
         <v>35481</v>
       </c>
-      <c r="BV1" s="8">
+      <c r="BW1" s="8">
         <f>DATE(97,3,17)</f>
         <v>35506</v>
       </c>
-      <c r="BW1" s="8">
+      <c r="BX1" s="8">
         <f>DATE(97,4,30)</f>
         <v>35550</v>
       </c>
-      <c r="BX1" s="8">
+      <c r="BY1" s="8">
         <f>DATE(97,5,2)</f>
         <v>35552</v>
       </c>
-      <c r="BY1" s="8">
+      <c r="BZ1" s="8">
         <f>DATE(97,7,28)</f>
         <v>35639</v>
       </c>
-      <c r="BZ1" s="8">
+      <c r="CA1" s="8">
         <f>DATE(97,7,31)</f>
         <v>35642</v>
       </c>
-      <c r="CA1" s="8">
+      <c r="CB1" s="8">
         <f>DATE(97,9,14)</f>
         <v>35687</v>
       </c>
-      <c r="CB1" s="8">
+      <c r="CC1" s="8">
         <f>DATE(97,9,16)</f>
         <v>35689</v>
       </c>
-      <c r="CC1" s="8">
+      <c r="CD1" s="8">
         <f>DATE(97,9,18)</f>
         <v>35691</v>
       </c>
-      <c r="CD1" s="8">
+      <c r="CE1" s="8">
         <f>DATE(97,9,30)</f>
         <v>35703</v>
       </c>
-      <c r="CE1" s="8">
+      <c r="CF1" s="8">
         <f>DATE(97,11,3)</f>
         <v>35737</v>
       </c>
-      <c r="CF1" s="8">
+      <c r="CG1" s="8">
         <f>DATE(97,11,4)</f>
         <v>35738</v>
       </c>
-      <c r="CG1" s="8">
+      <c r="CH1" s="8">
         <f>DATE(97,12,2)</f>
         <v>35766</v>
       </c>
-      <c r="CH1" s="8">
+      <c r="CI1" s="8">
         <f>DATE(97,12,4)</f>
         <v>35768</v>
       </c>
-      <c r="CI1" s="8">
+      <c r="CJ1" s="8">
         <f>DATE(97,12,7)</f>
         <v>35771</v>
       </c>
-      <c r="CJ1" s="8">
+      <c r="CK1" s="8">
         <f>DATE(97,12,10)</f>
         <v>35774</v>
       </c>
-      <c r="CK1" s="8">
+      <c r="CL1" s="8">
         <f>DATE(98,1,30)</f>
         <v>35825</v>
       </c>
-      <c r="CL1" s="8">
+      <c r="CM1" s="8">
         <f>DATE(98,2,9)</f>
         <v>35835</v>
       </c>
-      <c r="CM1" s="8">
+      <c r="CN1" s="8">
         <f>DATE(98,2,19)</f>
         <v>35845</v>
       </c>
-      <c r="CN1" s="8">
+      <c r="CO1" s="8">
         <f>DATE(98,2,22)</f>
         <v>35848</v>
       </c>
-      <c r="CO1" s="8">
+      <c r="CP1" s="8">
         <f>DATE(98,2,24)</f>
         <v>35850</v>
       </c>
-      <c r="CP1" s="8">
+      <c r="CQ1" s="8">
         <f>DATE(98,2,26)</f>
         <v>35852</v>
       </c>
-      <c r="CQ1" s="8">
+      <c r="CR1" s="8">
         <f>DATE(98,5,4)</f>
         <v>35919</v>
       </c>
-      <c r="CR1" s="8">
+      <c r="CS1" s="8">
         <f>DATE(98,5,7)</f>
         <v>35922</v>
       </c>
-      <c r="CS1" s="8">
+      <c r="CT1" s="8">
         <f>DATE(98,5,12)</f>
         <v>35927</v>
       </c>
-      <c r="CT1" s="8">
+      <c r="CU1" s="8">
         <f>DATE(98,6,4)</f>
         <v>35950</v>
       </c>
-      <c r="CU1" s="8">
+      <c r="CV1" s="8">
         <f>DATE(98,7,20)</f>
         <v>35996</v>
       </c>
-      <c r="CV1" s="8">
+      <c r="CW1" s="8">
         <f>DATE(98,8,3)</f>
         <v>36010</v>
       </c>
-      <c r="CW1" s="8">
+      <c r="CX1" s="8">
         <f>DATE(98,8,5)</f>
         <v>36012</v>
       </c>
-      <c r="CX1" s="8">
+      <c r="CY1" s="8">
         <f>DATE(98,9,1)</f>
         <v>36039</v>
       </c>
-      <c r="CY1" s="8">
+      <c r="CZ1" s="8">
         <f>DATE(98,9,3)</f>
         <v>36041</v>
       </c>
-      <c r="CZ1" s="8">
+      <c r="DA1" s="8">
         <f>DATE(98,9,8)</f>
         <v>36046</v>
       </c>
-      <c r="DA1" s="8">
+      <c r="DB1" s="8">
         <f>DATE(98,12,30)</f>
         <v>36159</v>
       </c>
-      <c r="DB1" s="8">
+      <c r="DC1" s="8">
         <f>DATE(99,1,5)</f>
         <v>36165</v>
       </c>
-      <c r="DC1" s="8">
+      <c r="DD1" s="8">
         <f>DATE(99,5,5)</f>
         <v>36285</v>
       </c>
-      <c r="DD1" s="8">
+      <c r="DE1" s="8">
         <f>DATE(99,5,18)</f>
         <v>36298</v>
       </c>
-      <c r="DE1" s="8">
+      <c r="DF1" s="8">
         <v>36333</v>
       </c>
-      <c r="DF1" s="8">
+      <c r="DG1" s="8">
         <f>DATE(99,6,24)</f>
         <v>36335</v>
       </c>
-      <c r="DG1" s="8">
+      <c r="DH1" s="8">
         <f>DATE(99,9,3)</f>
         <v>36406</v>
       </c>
-      <c r="DH1" s="8">
+      <c r="DI1" s="8">
         <f>DATE(99,9,8)</f>
         <v>36411</v>
       </c>
-      <c r="DI1" s="8">
+      <c r="DJ1" s="8">
         <f>DATE(99,9,13)</f>
         <v>36416</v>
       </c>
-      <c r="DJ1" s="8">
+      <c r="DK1" s="8">
         <f>DATE(99,10,6)</f>
         <v>36439</v>
       </c>
-      <c r="DK1" s="8">
+      <c r="DL1" s="8">
         <f>DATE(99,10,11)</f>
         <v>36444</v>
       </c>
-      <c r="DL1" s="8">
+      <c r="DM1" s="8">
         <f>DATE(99,10,20)</f>
         <v>36453</v>
       </c>
-      <c r="DM1" s="8">
+      <c r="DN1" s="8">
         <v>36458</v>
       </c>
-      <c r="DN1" s="8">
+      <c r="DO1" s="8">
         <v>36467</v>
       </c>
-      <c r="DO1" s="8">
+      <c r="DP1" s="8">
         <f>DATE(99,11,7)</f>
         <v>36471</v>
       </c>
-      <c r="DP1" s="8">
+      <c r="DQ1" s="8">
         <f>DATE(2000,1,27)</f>
         <v>36552</v>
       </c>
-      <c r="DQ1" s="8">
+      <c r="DR1" s="8">
         <f>DATE(2000,1,31)</f>
         <v>36556</v>
       </c>
-      <c r="DR1" s="8">
+      <c r="DS1" s="8">
         <f>DATE(2000,3,23)</f>
         <v>36608</v>
       </c>
-      <c r="DS1" s="8">
+      <c r="DT1" s="8">
         <f>DATE(2000,4,18)</f>
         <v>36634</v>
       </c>
-      <c r="DT1" s="8">
+      <c r="DU1" s="8">
         <f>DATE(2000,4,20)</f>
         <v>36636</v>
       </c>
-      <c r="DU1" s="8">
+      <c r="DV1" s="8">
         <f>DATE(2000,5,24)</f>
         <v>36670</v>
       </c>
-      <c r="DV1" s="8">
+      <c r="DW1" s="8">
         <f>DATE(2000,7,28)</f>
         <v>36735</v>
       </c>
-      <c r="DW1" s="8">
+      <c r="DX1" s="8">
         <f>DATE(2000,8,7)</f>
         <v>36745</v>
       </c>
-      <c r="DX1" s="8">
+      <c r="DY1" s="8">
         <f>DATE(2000,8,31)</f>
         <v>36769</v>
       </c>
-      <c r="DY1" s="8">
+      <c r="DZ1" s="8">
         <f>DATE(2000,9,8)</f>
         <v>36777</v>
       </c>
-      <c r="DZ1" s="8">
+      <c r="EA1" s="8">
         <f>DATE(2000,9,11)</f>
         <v>36780</v>
       </c>
-      <c r="EA1" s="8">
+      <c r="EB1" s="8">
         <f>DATE(2000,9,21)</f>
         <v>36790</v>
       </c>
-      <c r="EB1" s="8">
+      <c r="EC1" s="8">
         <f>DATE(2000,9,25)</f>
         <v>36794</v>
       </c>
-      <c r="EC1" s="8">
+      <c r="ED1" s="8">
         <f>DATE(2000,9,27)</f>
         <v>36796</v>
       </c>
-      <c r="ED1" s="8">
+      <c r="EE1" s="8">
         <f>DATE(2000,11,28)</f>
         <v>36858</v>
       </c>
-      <c r="EE1" s="8">
+      <c r="EF1" s="8">
         <f>DATE(2000,11,30)</f>
         <v>36860</v>
       </c>
-      <c r="EF1" s="8">
+      <c r="EG1" s="8">
         <f>DATE(2001,3,22)</f>
         <v>36972</v>
       </c>
-      <c r="EG1" s="8">
+      <c r="EH1" s="8">
         <f>DATE(2001,3,26)</f>
         <v>36976</v>
       </c>
-      <c r="EH1" s="8">
+      <c r="EI1" s="8">
         <f>DATE(2001,7,9)</f>
         <v>37081</v>
       </c>
-      <c r="EI1" s="8">
+      <c r="EJ1" s="8">
         <f>DATE(2001,8,16)</f>
         <v>37119</v>
       </c>
-      <c r="EJ1" s="8">
+      <c r="EK1" s="8">
         <f>DATE(2001,8,21)</f>
         <v>37124</v>
       </c>
-      <c r="EK1" s="8">
+      <c r="EL1" s="8">
         <f>DATE(2002,2,10)</f>
         <v>37297</v>
       </c>
-      <c r="EL1" s="9">
+      <c r="EM1" s="9">
         <f>DATE(2002,3,5)</f>
         <v>37320</v>
       </c>
-      <c r="EM1" s="8">
+      <c r="EN1" s="8">
         <f>DATE(2002,3,7)</f>
         <v>37322</v>
       </c>
-      <c r="EN1" s="8">
+      <c r="EO1" s="8">
         <f>DATE(2002,3,11)</f>
         <v>37326</v>
       </c>
-      <c r="EO1" s="8">
+      <c r="EP1" s="8">
         <f>DATE(2002,3,17)</f>
         <v>37332</v>
       </c>
-      <c r="EP1" s="8">
+      <c r="EQ1" s="8">
         <f>DATE(2002,5,6)</f>
         <v>37382</v>
       </c>
-      <c r="EQ1" s="8">
+      <c r="ER1" s="8">
         <v>37383</v>
       </c>
-      <c r="ER1" s="8">
+      <c r="ES1" s="8">
         <f>DATE(2002,6,17)</f>
         <v>37424</v>
       </c>
-      <c r="ES1" s="8">
+      <c r="ET1" s="8">
         <f>DATE(2002,7,12)</f>
         <v>37449</v>
       </c>
-      <c r="ET1" s="8">
+      <c r="EU1" s="8">
         <f>DATE(2002,7,15)</f>
         <v>37452</v>
       </c>
-      <c r="EU1" s="8">
+      <c r="EV1" s="8">
         <f>DATE(2002,9,3)</f>
         <v>37502</v>
       </c>
-      <c r="EV1" s="8">
+      <c r="EW1" s="8">
         <f>DATE(2002,9,4)</f>
         <v>37503</v>
       </c>
-      <c r="EW1" s="8">
+      <c r="EX1" s="8">
         <f>DATE(2002,10,14)</f>
         <v>37543</v>
       </c>
-      <c r="EX1" s="8">
+      <c r="EY1" s="8">
         <f>DATE(2002,10,16)</f>
         <v>37545</v>
       </c>
-      <c r="EY1" s="8">
+      <c r="EZ1" s="8">
         <f>DATE(2002,10,18)</f>
         <v>37547</v>
       </c>
-      <c r="EZ1" s="8">
+      <c r="FA1" s="8">
         <v>37685</v>
       </c>
-      <c r="FA1" s="8">
+      <c r="FB1" s="8">
         <v>37689</v>
       </c>
-      <c r="FB1" s="8">
+      <c r="FC1" s="8">
         <v>37691</v>
       </c>
-      <c r="FC1" s="8">
+      <c r="FD1" s="8">
         <v>37692</v>
       </c>
-      <c r="FD1" s="8">
+      <c r="FE1" s="8">
         <v>37693</v>
       </c>
-      <c r="FE1" s="8">
+      <c r="FF1" s="8">
         <v>37698</v>
       </c>
-      <c r="FF1" s="8">
+      <c r="FG1" s="8">
         <v>37703</v>
       </c>
-      <c r="FG1" s="8">
+      <c r="FH1" s="8">
         <v>37704</v>
       </c>
-      <c r="FH1" s="8">
+      <c r="FI1" s="8">
         <v>37706</v>
       </c>
-      <c r="FI1" s="8">
+      <c r="FJ1" s="8">
         <v>37713</v>
       </c>
-      <c r="FJ1" s="8">
+      <c r="FK1" s="8">
         <v>37725</v>
       </c>
-      <c r="FK1" s="8">
+      <c r="FL1" s="8">
         <v>37726</v>
       </c>
-      <c r="FL1" s="8">
+      <c r="FM1" s="8">
         <v>37769</v>
       </c>
-      <c r="FM1" s="8">
+      <c r="FN1" s="8">
         <v>37774</v>
       </c>
-      <c r="FN1" s="8">
+      <c r="FO1" s="8">
         <v>37775</v>
       </c>
-      <c r="FO1" s="8">
+      <c r="FP1" s="8">
         <v>37794</v>
       </c>
-      <c r="FP1" s="8">
+      <c r="FQ1" s="8">
         <v>37817</v>
       </c>
-      <c r="FQ1" s="8">
+      <c r="FR1" s="8">
         <v>37819</v>
       </c>
-      <c r="FR1" s="8">
+      <c r="FS1" s="8">
         <v>37820</v>
       </c>
-      <c r="FS1" s="8">
+      <c r="FT1" s="8">
         <v>37829</v>
       </c>
-      <c r="FT1" s="8">
+      <c r="FU1" s="8">
         <v>37831</v>
       </c>
-      <c r="FU1" s="8">
+      <c r="FV1" s="8">
         <v>37845</v>
       </c>
-      <c r="FV1" s="8">
+      <c r="FW1" s="8">
         <v>37847</v>
       </c>
-      <c r="FW1" s="8">
+      <c r="FX1" s="8">
         <v>37853</v>
       </c>
-      <c r="FX1" s="8">
+      <c r="FY1" s="8">
         <v>37855</v>
       </c>
-      <c r="FY1" s="8">
+      <c r="FZ1" s="8">
         <v>37858</v>
       </c>
-      <c r="FZ1" s="8">
+      <c r="GA1" s="8">
         <v>37860</v>
       </c>
-      <c r="GA1" s="8">
+      <c r="GB1" s="8">
         <v>37862</v>
       </c>
-      <c r="GB1" s="8">
+      <c r="GC1" s="8">
         <v>37886</v>
       </c>
-      <c r="GC1" s="8">
+      <c r="GD1" s="8">
         <v>37888</v>
       </c>
-      <c r="GD1" s="8">
+      <c r="GE1" s="8">
         <v>37907</v>
       </c>
-      <c r="GE1" s="8">
+      <c r="GF1" s="8">
         <v>37909</v>
       </c>
-      <c r="GF1" s="8">
+      <c r="GG1" s="8">
         <v>37910</v>
       </c>
-      <c r="GG1" s="8">
+      <c r="GH1" s="8">
         <v>37911</v>
       </c>
-      <c r="GH1" s="8">
+      <c r="GI1" s="8">
         <v>37914</v>
       </c>
-      <c r="GI1" s="8">
+      <c r="GJ1" s="8">
         <v>37915</v>
       </c>
-      <c r="GJ1" s="8">
+      <c r="GK1" s="8">
         <v>37916</v>
       </c>
-      <c r="GK1" s="8">
+      <c r="GL1" s="8">
         <v>37921</v>
       </c>
-      <c r="GL1" s="8">
+      <c r="GM1" s="8">
         <v>37924</v>
       </c>
-      <c r="GM1" s="8">
+      <c r="GN1" s="8">
         <v>37928</v>
       </c>
-      <c r="GN1" s="8">
+      <c r="GO1" s="8">
         <v>37929</v>
       </c>
-      <c r="GO1" s="8">
+      <c r="GP1" s="8">
         <v>37930</v>
       </c>
-      <c r="GP1" s="8">
+      <c r="GQ1" s="8">
         <v>37931</v>
       </c>
-      <c r="GQ1" s="8">
+      <c r="GR1" s="8">
         <v>37932</v>
       </c>
-      <c r="GR1" s="8">
+      <c r="GS1" s="8">
         <v>37935</v>
       </c>
-      <c r="GS1" s="8">
+      <c r="GT1" s="8">
         <v>37946</v>
       </c>
-      <c r="GT1" s="8">
+      <c r="GU1" s="8">
         <v>37949</v>
       </c>
-      <c r="GU1" s="8">
+      <c r="GV1" s="8">
         <v>37950</v>
       </c>
-      <c r="GV1" s="8">
+      <c r="GW1" s="8">
         <v>37962</v>
       </c>
-      <c r="GW1" s="8">
+      <c r="GX1" s="8">
         <v>37967</v>
       </c>
-      <c r="GX1" s="8">
+      <c r="GY1" s="8">
         <v>37973</v>
       </c>
-      <c r="GY1" s="8">
+      <c r="GZ1" s="8">
         <v>37975</v>
       </c>
-      <c r="GZ1" s="8">
+      <c r="HA1" s="8">
         <f>DATE(2003,12,22)</f>
         <v>37977</v>
       </c>
-      <c r="HA1" s="8">
+      <c r="HB1" s="8">
         <v>37982</v>
       </c>
-      <c r="HB1" s="8">
+      <c r="HC1" s="8">
         <v>37984</v>
       </c>
-      <c r="HC1" s="8">
+      <c r="HD1" s="8">
         <v>37985</v>
       </c>
-      <c r="HD1" s="8">
+      <c r="HE1" s="8">
         <v>38063</v>
       </c>
-      <c r="HE1" s="8">
+      <c r="HF1" s="8">
         <v>38064</v>
       </c>
-      <c r="HF1" s="8">
+      <c r="HG1" s="8">
         <v>38089</v>
       </c>
-      <c r="HG1" s="8">
+      <c r="HH1" s="8">
         <v>38092</v>
       </c>
-      <c r="HH1" s="8">
+      <c r="HI1" s="8">
         <v>38095</v>
       </c>
-      <c r="HI1" s="8">
+      <c r="HJ1" s="8">
         <v>38112</v>
       </c>
-      <c r="HJ1" s="8">
+      <c r="HK1" s="8">
         <v>38113</v>
       </c>
-      <c r="HK1" s="8">
+      <c r="HL1" s="8">
         <v>38139</v>
       </c>
-      <c r="HL1" s="8">
+      <c r="HM1" s="8">
         <v>38141</v>
       </c>
-      <c r="HM1" s="8">
+      <c r="HN1" s="8">
         <v>38194</v>
       </c>
-      <c r="HN1" s="8">
+      <c r="HO1" s="8">
         <v>38199</v>
       </c>
-      <c r="HO1" s="8">
+      <c r="HP1" s="8">
         <f>DATE(2004,8,5)</f>
         <v>38204</v>
       </c>
-      <c r="HP1" s="8">
+      <c r="HQ1" s="8">
         <v>38207</v>
       </c>
-      <c r="HQ1" s="8">
+      <c r="HR1" s="8">
         <v>38209</v>
       </c>
-      <c r="HR1" s="8">
+      <c r="HS1" s="8">
         <v>38216</v>
       </c>
-      <c r="HS1" s="8">
+      <c r="HT1" s="8">
         <v>38218</v>
       </c>
-      <c r="HT1" s="8">
+      <c r="HU1" s="8">
         <v>38230</v>
       </c>
-      <c r="HU1" s="8">
+      <c r="HV1" s="8">
         <f>DATE(2004,9,4)</f>
         <v>38234</v>
       </c>
-      <c r="HV1" s="8">
+      <c r="HW1" s="8">
         <v>38238</v>
       </c>
-      <c r="HW1" s="8">
+      <c r="HX1" s="8">
         <v>38243</v>
       </c>
-      <c r="HX1" s="8">
+      <c r="HY1" s="8">
         <v>38246</v>
       </c>
-      <c r="HY1" s="8">
+      <c r="HZ1" s="8">
         <f>DATE(2004,9,20)</f>
         <v>38250</v>
       </c>
-      <c r="HZ1" s="8">
+      <c r="IA1" s="8">
         <f>DATE(2004,9,21)</f>
         <v>38251</v>
       </c>
-      <c r="IA1" s="8">
+      <c r="IB1" s="8">
         <v>38448</v>
       </c>
-      <c r="IB1" s="8">
+      <c r="IC1" s="8">
         <v>38452</v>
       </c>
-      <c r="IC1" s="8">
+      <c r="ID1" s="8">
         <v>38481</v>
       </c>
-      <c r="ID1" s="8">
+      <c r="IE1" s="8">
         <v>38482</v>
       </c>
-      <c r="IE1" s="8">
+      <c r="IF1" s="8">
         <v>38508</v>
       </c>
-      <c r="IF1" s="8">
+      <c r="IG1" s="8">
         <v>38534</v>
       </c>
-      <c r="IG1" s="8">
+      <c r="IH1" s="8">
         <v>38538</v>
       </c>
-      <c r="IH1" s="8">
+      <c r="II1" s="8">
         <v>38540</v>
       </c>
-      <c r="II1" s="8">
+      <c r="IJ1" s="8">
         <v>38550</v>
       </c>
-      <c r="IJ1" s="8">
+      <c r="IK1" s="8">
         <v>38555</v>
       </c>
-      <c r="IK1" s="8">
+      <c r="IL1" s="8">
         <v>38558</v>
       </c>
-      <c r="IL1" s="8">
+      <c r="IM1" s="8">
         <v>38567</v>
       </c>
-      <c r="IM1" s="8">
+      <c r="IN1" s="8">
         <v>38568</v>
       </c>
-      <c r="IN1" s="8">
+      <c r="IO1" s="8">
         <v>38615</v>
       </c>
-      <c r="IO1" s="8">
+      <c r="IP1" s="8">
         <v>38616</v>
       </c>
-      <c r="IP1" s="8">
+      <c r="IQ1" s="8">
         <v>38642</v>
       </c>
-      <c r="IQ1" s="5"/>
       <c r="IR1" s="5"/>
       <c r="IS1" s="5"/>
-      <c r="IT1" s="4"/>
+      <c r="IT1" s="5"/>
       <c r="IU1" s="4"/>
       <c r="IV1" s="4"/>
+      <c r="IW1" s="4"/>
     </row>
-    <row r="2" spans="1:256" s="1" customFormat="1">
-      <c r="A2" s="10">
+    <row r="2" spans="1:257" s="1" customFormat="1">
+      <c r="B2" s="10">
         <v>7</v>
       </c>
-      <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
-      <c r="E2" s="11">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11">
         <v>11</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11">
-        <v>33</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11">
+        <v>33</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11">
         <v>170</v>
       </c>
-      <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="11">
+      <c r="L2" s="11"/>
+      <c r="M2" s="11">
         <v>11</v>
       </c>
-      <c r="M2" s="11"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
@@ -1540,15 +1542,15 @@
       <c r="AB2" s="11"/>
       <c r="AC2" s="11"/>
       <c r="AD2" s="11"/>
-      <c r="AE2" s="11">
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11">
         <v>79</v>
       </c>
-      <c r="AF2" s="11"/>
       <c r="AG2" s="11"/>
-      <c r="AH2" s="11">
-        <v>4.5</v>
-      </c>
-      <c r="AI2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11">
+        <v>4.5</v>
+      </c>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -1558,10 +1560,10 @@
       <c r="AP2" s="11"/>
       <c r="AQ2" s="11"/>
       <c r="AR2" s="11"/>
-      <c r="AS2" s="11">
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="11">
         <v>23</v>
       </c>
-      <c r="AT2" s="11"/>
       <c r="AU2" s="11"/>
       <c r="AV2" s="11"/>
       <c r="AW2" s="11"/>
@@ -1569,8 +1571,8 @@
       <c r="AY2" s="11"/>
       <c r="AZ2" s="11"/>
       <c r="BA2" s="11"/>
-      <c r="BB2" s="10"/>
-      <c r="BC2" s="11"/>
+      <c r="BB2" s="11"/>
+      <c r="BC2" s="10"/>
       <c r="BD2" s="11"/>
       <c r="BE2" s="11"/>
       <c r="BF2" s="11"/>
@@ -1664,13 +1666,13 @@
       <c r="EP2" s="11"/>
       <c r="EQ2" s="11"/>
       <c r="ER2" s="11"/>
-      <c r="ES2" s="10"/>
+      <c r="ES2" s="11"/>
       <c r="ET2" s="10"/>
       <c r="EU2" s="10"/>
       <c r="EV2" s="10"/>
       <c r="EW2" s="10"/>
       <c r="EX2" s="10"/>
-      <c r="EY2" s="11"/>
+      <c r="EY2" s="10"/>
       <c r="EZ2" s="11"/>
       <c r="FA2" s="11"/>
       <c r="FB2" s="11"/>
@@ -1706,7 +1708,7 @@
       <c r="GF2" s="11"/>
       <c r="GG2" s="11"/>
       <c r="GH2" s="11"/>
-      <c r="GI2" s="12"/>
+      <c r="GI2" s="11"/>
       <c r="GJ2" s="12"/>
       <c r="GK2" s="12"/>
       <c r="GL2" s="12"/>
@@ -1729,149 +1731,147 @@
       <c r="HC2" s="12"/>
       <c r="HD2" s="12"/>
       <c r="HE2" s="12"/>
-      <c r="HF2" s="12">
+      <c r="HF2" s="12"/>
+      <c r="HG2" s="12">
         <v>540</v>
       </c>
-      <c r="HG2" s="12">
+      <c r="HH2" s="12">
         <v>23</v>
       </c>
-      <c r="HH2" s="12">
-        <v>4.5</v>
-      </c>
       <c r="HI2" s="12">
-        <v>33</v>
+        <v>4.5</v>
       </c>
       <c r="HJ2" s="12">
-        <v>7.8</v>
+        <v>33</v>
       </c>
       <c r="HK2" s="12">
-        <v>33</v>
+        <v>7.8</v>
       </c>
       <c r="HL2" s="12">
-        <v>7.8</v>
+        <v>33</v>
       </c>
       <c r="HM2" s="12">
+        <v>7.8</v>
+      </c>
+      <c r="HN2" s="12">
         <v>170</v>
       </c>
-      <c r="HN2" s="12">
-        <v>2</v>
-      </c>
-      <c r="HO2" s="12"/>
-      <c r="HP2" s="12">
+      <c r="HO2" s="12">
+        <v>2</v>
+      </c>
+      <c r="HP2" s="12"/>
+      <c r="HQ2" s="12">
         <v>22</v>
       </c>
-      <c r="HQ2" s="12">
-        <v>33</v>
-      </c>
-      <c r="HR2" s="12"/>
+      <c r="HR2" s="12">
+        <v>33</v>
+      </c>
       <c r="HS2" s="12"/>
-      <c r="HT2" s="12">
-        <v>7.8</v>
-      </c>
-      <c r="HU2" s="12"/>
-      <c r="HV2" s="12">
+      <c r="HT2" s="12"/>
+      <c r="HU2" s="12">
+        <v>7.8</v>
+      </c>
+      <c r="HV2" s="12"/>
+      <c r="HW2" s="12">
         <v>540</v>
       </c>
-      <c r="HW2" s="12">
-        <v>33</v>
-      </c>
       <c r="HX2" s="12">
+        <v>33</v>
+      </c>
+      <c r="HY2" s="12">
         <v>170</v>
       </c>
-      <c r="HY2" s="12">
+      <c r="HZ2" s="12">
         <v>13</v>
       </c>
-      <c r="HZ2" s="12"/>
-      <c r="IA2" s="12">
+      <c r="IA2" s="12"/>
+      <c r="IB2" s="12">
         <v>13</v>
       </c>
-      <c r="IB2" s="12">
+      <c r="IC2" s="12">
         <v>17</v>
       </c>
-      <c r="IC2" s="12"/>
-      <c r="ID2" s="12">
+      <c r="ID2" s="12"/>
+      <c r="IE2" s="12">
         <v>11</v>
       </c>
-      <c r="IE2" s="12">
-        <v>7.8</v>
-      </c>
       <c r="IF2" s="12">
+        <v>7.8</v>
+      </c>
+      <c r="IG2" s="12">
         <v>170</v>
       </c>
-      <c r="IG2" s="12">
-        <v>7.8</v>
-      </c>
       <c r="IH2" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="II2" s="12"/>
-      <c r="IJ2" s="12">
+        <v>7.8</v>
+      </c>
+      <c r="II2" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="IJ2" s="12"/>
+      <c r="IK2" s="12">
         <v>49</v>
       </c>
-      <c r="IK2" s="12">
-        <v>2</v>
-      </c>
       <c r="IL2" s="12">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="IM2" s="12">
         <v>13</v>
       </c>
-      <c r="IN2" s="12"/>
-      <c r="IO2" s="12">
-        <v>4.5</v>
-      </c>
+      <c r="IN2" s="12">
+        <v>13</v>
+      </c>
+      <c r="IO2" s="12"/>
       <c r="IP2" s="12">
         <v>4.5</v>
       </c>
-      <c r="IQ2" s="2"/>
+      <c r="IQ2" s="12">
+        <v>4.5</v>
+      </c>
       <c r="IR2" s="2"/>
       <c r="IS2" s="2"/>
       <c r="IT2" s="2"/>
       <c r="IU2" s="2"/>
       <c r="IV2" s="2"/>
+      <c r="IW2" s="2"/>
     </row>
-    <row r="3" spans="1:256" s="1" customFormat="1">
-      <c r="A3" s="10">
+    <row r="3" spans="1:257" s="1" customFormat="1">
+      <c r="B3" s="10">
         <v>6</v>
       </c>
-      <c r="B3" s="11"/>
       <c r="C3" s="11"/>
-      <c r="D3" s="11">
-        <v>33</v>
-      </c>
+      <c r="D3" s="11"/>
       <c r="E3" s="11">
+        <v>33</v>
+      </c>
+      <c r="F3" s="11">
         <v>4</v>
       </c>
-      <c r="F3" s="11">
+      <c r="G3" s="11">
         <v>13</v>
       </c>
-      <c r="G3" s="11">
+      <c r="H3" s="11">
         <v>22</v>
       </c>
-      <c r="H3" s="11">
-        <v>7.8</v>
-      </c>
       <c r="I3" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="J3" s="11">
         <v>170</v>
       </c>
-      <c r="J3" s="11">
+      <c r="K3" s="11">
         <v>130</v>
       </c>
-      <c r="K3" s="11">
+      <c r="L3" s="11">
         <v>13</v>
       </c>
-      <c r="L3" s="11">
+      <c r="M3" s="11">
         <v>1.8</v>
       </c>
-      <c r="M3" s="11">
+      <c r="N3" s="11">
         <v>540</v>
       </c>
-      <c r="N3" s="11">
-        <v>4.5</v>
-      </c>
       <c r="O3" s="11">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="P3" s="11">
         <v>1.7</v>
@@ -1880,598 +1880,598 @@
         <v>1.7</v>
       </c>
       <c r="R3" s="11">
-        <v>7.8</v>
+        <v>1.7</v>
       </c>
       <c r="S3" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="T3" s="11">
         <v>13</v>
       </c>
-      <c r="T3" s="11">
-        <v>2</v>
-      </c>
       <c r="U3" s="11">
+        <v>2</v>
+      </c>
+      <c r="V3" s="11">
         <v>79</v>
       </c>
-      <c r="V3" s="11">
-        <v>7.8</v>
-      </c>
       <c r="W3" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="X3" s="11">
         <v>110</v>
       </c>
-      <c r="X3" s="11">
+      <c r="Y3" s="11">
         <v>17</v>
       </c>
-      <c r="Y3" s="11">
-        <v>33</v>
-      </c>
       <c r="Z3" s="11">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="AA3" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="11">
         <v>79</v>
       </c>
-      <c r="AB3" s="11">
+      <c r="AC3" s="11">
         <v>49</v>
       </c>
-      <c r="AC3" s="11">
+      <c r="AD3" s="11">
         <v>23</v>
       </c>
-      <c r="AD3" s="11">
-        <v>7.8</v>
-      </c>
       <c r="AE3" s="11">
-        <v>33</v>
+        <v>7.8</v>
       </c>
       <c r="AF3" s="11">
+        <v>33</v>
+      </c>
+      <c r="AG3" s="11">
         <v>49</v>
       </c>
-      <c r="AG3" s="11">
+      <c r="AH3" s="11">
         <v>17</v>
       </c>
-      <c r="AH3" s="11">
-        <v>33</v>
-      </c>
       <c r="AI3" s="11">
+        <v>33</v>
+      </c>
+      <c r="AJ3" s="11">
         <v>240</v>
       </c>
-      <c r="AJ3" s="11">
+      <c r="AK3" s="11">
         <v>79</v>
       </c>
-      <c r="AK3" s="11">
+      <c r="AL3" s="11">
         <v>130</v>
       </c>
-      <c r="AL3" s="11">
+      <c r="AM3" s="11">
         <v>49</v>
       </c>
-      <c r="AM3" s="11">
+      <c r="AN3" s="11">
         <v>350</v>
       </c>
-      <c r="AN3" s="11">
-        <v>33</v>
-      </c>
       <c r="AO3" s="11">
         <v>33</v>
       </c>
       <c r="AP3" s="11">
+        <v>33</v>
+      </c>
+      <c r="AQ3" s="11">
         <v>17</v>
       </c>
-      <c r="AQ3" s="11">
+      <c r="AR3" s="11">
         <v>110</v>
       </c>
-      <c r="AR3" s="11">
+      <c r="AS3" s="11">
         <v>14</v>
       </c>
-      <c r="AS3" s="11">
+      <c r="AT3" s="11">
         <v>21</v>
       </c>
-      <c r="AT3" s="11">
+      <c r="AU3" s="11">
         <v>1600</v>
       </c>
-      <c r="AU3" s="11">
+      <c r="AV3" s="11">
         <v>11</v>
       </c>
-      <c r="AV3" s="11">
-        <v>4.5</v>
-      </c>
       <c r="AW3" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="AX3" s="11">
         <v>1.8</v>
       </c>
-      <c r="AX3" s="11">
+      <c r="AY3" s="11">
         <v>350</v>
       </c>
-      <c r="AY3" s="11">
+      <c r="AZ3" s="11">
         <v>22</v>
       </c>
-      <c r="AZ3" s="11">
-        <v>7.8</v>
-      </c>
-      <c r="BA3" s="11"/>
+      <c r="BA3" s="11">
+        <v>7.8</v>
+      </c>
       <c r="BB3" s="11"/>
-      <c r="BC3" s="11">
+      <c r="BC3" s="11"/>
+      <c r="BD3" s="11">
         <v>130</v>
       </c>
-      <c r="BD3" s="11">
+      <c r="BE3" s="11">
         <v>49</v>
       </c>
-      <c r="BE3" s="11">
-        <v>7.8</v>
-      </c>
       <c r="BF3" s="11">
-        <v>2</v>
+        <v>7.8</v>
       </c>
       <c r="BG3" s="11">
+        <v>2</v>
+      </c>
+      <c r="BH3" s="11">
         <v>350</v>
       </c>
-      <c r="BH3" s="11">
-        <v>2</v>
-      </c>
       <c r="BI3" s="11">
+        <v>2</v>
+      </c>
+      <c r="BJ3" s="11">
         <v>49</v>
       </c>
-      <c r="BJ3" s="11"/>
-      <c r="BK3" s="11">
+      <c r="BK3" s="11"/>
+      <c r="BL3" s="11">
         <v>140</v>
       </c>
-      <c r="BL3" s="11">
+      <c r="BM3" s="11">
         <v>11</v>
       </c>
-      <c r="BM3" s="11">
+      <c r="BN3" s="11">
         <v>240</v>
       </c>
-      <c r="BN3" s="11">
-        <v>33</v>
-      </c>
       <c r="BO3" s="11">
+        <v>33</v>
+      </c>
+      <c r="BP3" s="11">
         <v>49</v>
       </c>
-      <c r="BP3" s="11">
-        <v>33</v>
-      </c>
       <c r="BQ3" s="11">
         <v>33</v>
       </c>
       <c r="BR3" s="11">
-        <v>4.5</v>
+        <v>33</v>
       </c>
       <c r="BS3" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="BT3" s="11">
         <v>130</v>
       </c>
-      <c r="BT3" s="11">
+      <c r="BU3" s="11">
         <v>49</v>
       </c>
-      <c r="BU3" s="11">
+      <c r="BV3" s="11">
         <v>23</v>
       </c>
-      <c r="BV3" s="11">
+      <c r="BW3" s="11">
         <v>13</v>
       </c>
-      <c r="BW3" s="11">
+      <c r="BX3" s="11">
         <v>79</v>
       </c>
-      <c r="BX3" s="11">
-        <v>33</v>
-      </c>
       <c r="BY3" s="11">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="BZ3" s="11">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="11">
         <v>23</v>
       </c>
-      <c r="CA3" s="11">
+      <c r="CB3" s="11">
         <v>170</v>
       </c>
-      <c r="CB3" s="11">
+      <c r="CC3" s="11">
         <v>49</v>
       </c>
-      <c r="CC3" s="11">
-        <v>2</v>
-      </c>
       <c r="CD3" s="11">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="CE3" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="CF3" s="11">
         <v>11</v>
       </c>
-      <c r="CF3" s="11">
-        <v>2</v>
-      </c>
       <c r="CG3" s="11">
+        <v>2</v>
+      </c>
+      <c r="CH3" s="11">
         <v>240</v>
       </c>
-      <c r="CH3" s="11">
-        <v>33</v>
-      </c>
       <c r="CI3" s="11">
+        <v>33</v>
+      </c>
+      <c r="CJ3" s="11">
         <v>95</v>
       </c>
-      <c r="CJ3" s="11">
+      <c r="CK3" s="11">
         <v>22</v>
       </c>
-      <c r="CK3" s="11">
-        <v>4.5</v>
-      </c>
       <c r="CL3" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="CM3" s="11">
         <v>11</v>
       </c>
-      <c r="CM3" s="11">
+      <c r="CN3" s="11">
         <v>540</v>
       </c>
-      <c r="CN3" s="11">
-        <v>33</v>
-      </c>
       <c r="CO3" s="11">
         <v>33</v>
       </c>
       <c r="CP3" s="11">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="CQ3" s="11">
+        <v>2</v>
+      </c>
+      <c r="CR3" s="11">
         <v>23</v>
       </c>
-      <c r="CR3" s="11"/>
-      <c r="CS3" s="11">
+      <c r="CS3" s="11"/>
+      <c r="CT3" s="11">
         <v>13</v>
       </c>
-      <c r="CT3" s="11">
-        <v>2</v>
-      </c>
       <c r="CU3" s="11">
+        <v>2</v>
+      </c>
+      <c r="CV3" s="11">
         <v>17</v>
       </c>
-      <c r="CV3" s="11">
+      <c r="CW3" s="11">
         <v>49</v>
       </c>
-      <c r="CW3" s="11">
-        <v>4.5</v>
-      </c>
-      <c r="CX3" s="11"/>
-      <c r="CY3" s="11">
+      <c r="CX3" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="CY3" s="11"/>
+      <c r="CZ3" s="11">
         <v>79</v>
       </c>
-      <c r="CZ3" s="11">
-        <v>4.5</v>
-      </c>
       <c r="DA3" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="DB3" s="11">
         <v>79</v>
       </c>
-      <c r="DB3" s="11">
-        <v>2</v>
-      </c>
       <c r="DC3" s="11">
         <v>2</v>
       </c>
       <c r="DD3" s="11">
-        <v>4.5</v>
-      </c>
-      <c r="DE3" s="11"/>
-      <c r="DF3" s="11">
-        <v>7.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="DE3" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="DF3" s="11"/>
       <c r="DG3" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="DH3" s="11">
         <v>6.8</v>
       </c>
-      <c r="DH3" s="11">
-        <v>33</v>
-      </c>
       <c r="DI3" s="11">
-        <v>1.7</v>
+        <v>33</v>
       </c>
       <c r="DJ3" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="DK3" s="11">
         <v>11</v>
       </c>
-      <c r="DK3" s="11">
-        <v>2</v>
-      </c>
       <c r="DL3" s="11">
+        <v>2</v>
+      </c>
+      <c r="DM3" s="11">
         <v>240</v>
       </c>
-      <c r="DM3" s="11">
-        <v>4.5</v>
-      </c>
       <c r="DN3" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="DO3" s="11">
         <v>1600</v>
       </c>
-      <c r="DO3" s="11">
+      <c r="DP3" s="11">
         <v>13</v>
       </c>
-      <c r="DP3" s="11">
+      <c r="DQ3" s="11">
         <v>23</v>
       </c>
-      <c r="DQ3" s="11">
-        <v>33</v>
-      </c>
       <c r="DR3" s="11">
-        <v>1.7</v>
+        <v>33</v>
       </c>
       <c r="DS3" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="DT3" s="11">
         <v>17</v>
       </c>
-      <c r="DT3" s="11">
-        <v>7.8</v>
-      </c>
       <c r="DU3" s="11">
         <v>7.8</v>
       </c>
       <c r="DV3" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="DW3" s="11">
         <v>17</v>
       </c>
-      <c r="DW3" s="11">
+      <c r="DX3" s="11">
         <v>23</v>
       </c>
-      <c r="DX3" s="11">
+      <c r="DY3" s="11">
         <v>6.8</v>
       </c>
-      <c r="DY3" s="11">
+      <c r="DZ3" s="11">
         <v>14</v>
       </c>
-      <c r="DZ3" s="11">
+      <c r="EA3" s="11">
         <v>12</v>
       </c>
-      <c r="EA3" s="11">
+      <c r="EB3" s="11">
         <v>170</v>
       </c>
-      <c r="EB3" s="11"/>
-      <c r="EC3" s="11">
+      <c r="EC3" s="11"/>
+      <c r="ED3" s="11">
         <v>6.8</v>
       </c>
-      <c r="ED3" s="11">
+      <c r="EE3" s="11">
         <v>11</v>
       </c>
-      <c r="EE3" s="11">
-        <v>2</v>
-      </c>
       <c r="EF3" s="11">
+        <v>2</v>
+      </c>
+      <c r="EG3" s="11">
         <v>350</v>
       </c>
-      <c r="EG3" s="11">
-        <v>7.8</v>
-      </c>
       <c r="EH3" s="11">
-        <v>1.7</v>
+        <v>7.8</v>
       </c>
       <c r="EI3" s="11">
-        <v>33</v>
+        <v>1.7</v>
       </c>
       <c r="EJ3" s="11">
-        <v>1.7</v>
+        <v>33</v>
       </c>
       <c r="EK3" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="EL3" s="11">
         <v>17</v>
       </c>
-      <c r="EL3" s="11">
+      <c r="EM3" s="11">
         <v>130</v>
       </c>
-      <c r="EM3" s="11">
+      <c r="EN3" s="11">
         <v>49</v>
       </c>
-      <c r="EN3" s="11">
-        <v>2</v>
-      </c>
       <c r="EO3" s="11">
+        <v>2</v>
+      </c>
+      <c r="EP3" s="11">
         <v>13</v>
       </c>
-      <c r="EP3" s="11">
+      <c r="EQ3" s="11">
         <v>110</v>
-      </c>
-      <c r="EQ3" s="11">
-        <v>11</v>
       </c>
       <c r="ER3" s="11">
         <v>11</v>
       </c>
-      <c r="ES3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="ET3" s="10">
-        <v>7.8</v>
-      </c>
-      <c r="EU3" s="11"/>
-      <c r="EV3" s="10">
+      <c r="ES3" s="11">
+        <v>11</v>
+      </c>
+      <c r="ET3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="EU3" s="10">
+        <v>7.8</v>
+      </c>
+      <c r="EV3" s="11"/>
+      <c r="EW3" s="10">
         <v>1.8</v>
       </c>
-      <c r="EW3" s="11">
+      <c r="EX3" s="11">
         <v>17</v>
       </c>
-      <c r="EX3" s="11">
-        <v>33</v>
-      </c>
       <c r="EY3" s="11">
+        <v>33</v>
+      </c>
+      <c r="EZ3" s="11">
         <v>1.8</v>
       </c>
-      <c r="EZ3" s="11">
-        <v>2</v>
-      </c>
       <c r="FA3" s="11">
+        <v>2</v>
+      </c>
+      <c r="FB3" s="11">
         <v>22</v>
       </c>
-      <c r="FB3" s="11">
+      <c r="FC3" s="11">
         <v>170</v>
       </c>
-      <c r="FC3" s="11">
+      <c r="FD3" s="11">
         <v>79</v>
       </c>
-      <c r="FD3" s="11">
+      <c r="FE3" s="11">
         <v>17</v>
       </c>
-      <c r="FE3" s="11">
-        <v>33</v>
-      </c>
-      <c r="FF3" s="11"/>
-      <c r="FG3" s="11">
+      <c r="FF3" s="11">
+        <v>33</v>
+      </c>
+      <c r="FG3" s="11"/>
+      <c r="FH3" s="11">
         <v>130</v>
       </c>
-      <c r="FH3" s="11">
+      <c r="FI3" s="11">
         <v>49</v>
       </c>
-      <c r="FI3" s="11">
-        <v>4.5</v>
-      </c>
       <c r="FJ3" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="FK3" s="11">
         <v>49</v>
       </c>
-      <c r="FK3" s="11">
+      <c r="FL3" s="11">
         <v>13</v>
       </c>
-      <c r="FL3" s="11">
+      <c r="FM3" s="11">
         <v>540</v>
       </c>
-      <c r="FM3" s="11"/>
-      <c r="FN3" s="11">
-        <v>4.5</v>
-      </c>
+      <c r="FN3" s="11"/>
       <c r="FO3" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="FP3" s="11">
         <v>11</v>
       </c>
-      <c r="FP3" s="11">
+      <c r="FQ3" s="11">
         <v>170</v>
       </c>
-      <c r="FQ3" s="11">
-        <v>4.5</v>
-      </c>
-      <c r="FR3" s="11"/>
-      <c r="FS3" s="11">
+      <c r="FR3" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="FS3" s="11"/>
+      <c r="FT3" s="11">
         <v>22</v>
       </c>
-      <c r="FT3" s="11">
-        <v>7.8</v>
-      </c>
       <c r="FU3" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="FV3" s="11">
         <v>49</v>
       </c>
-      <c r="FV3" s="11">
+      <c r="FW3" s="11">
         <v>17</v>
       </c>
-      <c r="FW3" s="11">
+      <c r="FX3" s="11">
         <v>130</v>
       </c>
-      <c r="FX3" s="11">
+      <c r="FY3" s="11">
         <v>110</v>
       </c>
-      <c r="FY3" s="11">
+      <c r="FZ3" s="11">
         <v>170</v>
       </c>
-      <c r="FZ3" s="11">
+      <c r="GA3" s="11">
         <v>49</v>
       </c>
-      <c r="GA3" s="11">
-        <v>4.5</v>
-      </c>
-      <c r="GB3" s="11"/>
-      <c r="GC3" s="11">
+      <c r="GB3" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="GC3" s="11"/>
+      <c r="GD3" s="11">
         <v>14</v>
       </c>
-      <c r="GD3" s="11">
+      <c r="GE3" s="11">
         <v>23</v>
       </c>
-      <c r="GE3" s="11">
-        <v>33</v>
-      </c>
       <c r="GF3" s="11">
+        <v>33</v>
+      </c>
+      <c r="GG3" s="11">
         <v>13</v>
       </c>
-      <c r="GG3" s="11">
+      <c r="GH3" s="11">
         <v>17</v>
       </c>
-      <c r="GH3" s="11">
+      <c r="GI3" s="11">
         <v>350</v>
       </c>
-      <c r="GI3" s="12">
-        <v>33</v>
-      </c>
       <c r="GJ3" s="12">
+        <v>33</v>
+      </c>
+      <c r="GK3" s="12">
         <v>27</v>
       </c>
-      <c r="GK3" s="12">
-        <v>4.5</v>
-      </c>
       <c r="GL3" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="GM3" s="12">
         <v>350</v>
       </c>
-      <c r="GM3" s="12">
-        <v>33</v>
-      </c>
       <c r="GN3" s="12">
+        <v>33</v>
+      </c>
+      <c r="GO3" s="12">
         <v>49</v>
       </c>
-      <c r="GO3" s="12">
+      <c r="GP3" s="12">
         <v>79</v>
       </c>
-      <c r="GP3" s="12">
+      <c r="GQ3" s="12">
         <v>23</v>
       </c>
-      <c r="GQ3" s="12">
+      <c r="GR3" s="12">
         <v>49</v>
       </c>
-      <c r="GR3" s="12">
+      <c r="GS3" s="12">
         <v>23</v>
       </c>
-      <c r="GS3" s="12">
+      <c r="GT3" s="12">
         <v>140</v>
       </c>
-      <c r="GT3" s="12">
-        <v>33</v>
-      </c>
       <c r="GU3" s="12">
+        <v>33</v>
+      </c>
+      <c r="GV3" s="12">
         <v>12</v>
       </c>
-      <c r="GV3" s="12">
+      <c r="GW3" s="12">
         <v>6.8</v>
-      </c>
-      <c r="GW3" s="12">
-        <v>49</v>
       </c>
       <c r="GX3" s="12">
         <v>49</v>
       </c>
       <c r="GY3" s="12">
+        <v>49</v>
+      </c>
+      <c r="GZ3" s="12">
         <v>22</v>
       </c>
-      <c r="GZ3" s="12">
+      <c r="HA3" s="12">
         <v>6.8</v>
       </c>
-      <c r="HA3" s="12">
-        <v>33</v>
-      </c>
       <c r="HB3" s="12">
+        <v>33</v>
+      </c>
+      <c r="HC3" s="12">
         <v>23</v>
       </c>
-      <c r="HC3" s="12">
+      <c r="HD3" s="12">
         <v>13</v>
       </c>
-      <c r="HD3" s="12">
+      <c r="HE3" s="12">
         <v>49</v>
       </c>
-      <c r="HE3" s="12">
-        <v>4.5</v>
-      </c>
       <c r="HF3" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="HG3" s="12">
         <v>540</v>
       </c>
-      <c r="HG3" s="12">
+      <c r="HH3" s="12">
         <v>350</v>
       </c>
-      <c r="HH3" s="12">
-        <v>2</v>
-      </c>
       <c r="HI3" s="12">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="HJ3" s="12">
+        <v>33</v>
+      </c>
+      <c r="HK3" s="12">
         <v>6.8</v>
       </c>
-      <c r="HK3" s="12">
-        <v>33</v>
-      </c>
       <c r="HL3" s="12">
+        <v>33</v>
+      </c>
+      <c r="HM3" s="12">
         <v>11</v>
       </c>
-      <c r="HM3" s="12">
+      <c r="HN3" s="12">
         <v>130</v>
       </c>
-      <c r="HN3" s="12">
-        <v>4.5</v>
-      </c>
       <c r="HO3" s="12">
-        <v>33</v>
+        <v>4.5</v>
       </c>
       <c r="HP3" s="12">
         <v>33</v>
@@ -2479,86 +2479,88 @@
       <c r="HQ3" s="12">
         <v>33</v>
       </c>
-      <c r="HR3" s="12"/>
-      <c r="HS3" s="12">
-        <v>2</v>
-      </c>
+      <c r="HR3" s="12">
+        <v>33</v>
+      </c>
+      <c r="HS3" s="12"/>
       <c r="HT3" s="12">
-        <v>7.8</v>
+        <v>2</v>
       </c>
       <c r="HU3" s="12">
+        <v>7.8</v>
+      </c>
+      <c r="HV3" s="12">
         <v>49</v>
       </c>
-      <c r="HV3" s="12">
+      <c r="HW3" s="12">
         <v>110</v>
       </c>
-      <c r="HW3" s="12">
+      <c r="HX3" s="12">
         <v>79</v>
       </c>
-      <c r="HX3" s="12">
-        <v>33</v>
-      </c>
-      <c r="HY3" s="12"/>
+      <c r="HY3" s="12">
+        <v>33</v>
+      </c>
       <c r="HZ3" s="12"/>
-      <c r="IA3" s="12">
+      <c r="IA3" s="12"/>
+      <c r="IB3" s="12">
         <v>23</v>
       </c>
-      <c r="IB3" s="12">
-        <v>7.8</v>
-      </c>
-      <c r="IC3" s="12"/>
-      <c r="ID3" s="12">
-        <v>4.5</v>
-      </c>
+      <c r="IC3" s="12">
+        <v>7.8</v>
+      </c>
+      <c r="ID3" s="12"/>
       <c r="IE3" s="12">
         <v>4.5</v>
       </c>
       <c r="IF3" s="12">
-        <v>33</v>
+        <v>4.5</v>
       </c>
       <c r="IG3" s="12">
+        <v>33</v>
+      </c>
+      <c r="IH3" s="12">
         <v>280</v>
       </c>
-      <c r="IH3" s="12">
-        <v>1.7</v>
-      </c>
       <c r="II3" s="12">
-        <v>33</v>
+        <v>1.7</v>
       </c>
       <c r="IJ3" s="12">
+        <v>33</v>
+      </c>
+      <c r="IK3" s="12">
         <v>22</v>
       </c>
-      <c r="IK3" s="12">
-        <v>2</v>
-      </c>
       <c r="IL3" s="12">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="IM3" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="IN3" s="12">
         <v>13</v>
       </c>
-      <c r="IN3" s="12"/>
-      <c r="IO3" s="12">
-        <v>2</v>
-      </c>
+      <c r="IO3" s="12"/>
       <c r="IP3" s="12">
+        <v>2</v>
+      </c>
+      <c r="IQ3" s="12">
         <v>6.8</v>
       </c>
-      <c r="IQ3" s="2"/>
       <c r="IR3" s="2"/>
       <c r="IS3" s="2"/>
       <c r="IT3" s="2"/>
       <c r="IU3" s="2"/>
       <c r="IV3" s="2"/>
+      <c r="IW3" s="2"/>
     </row>
-    <row r="4" spans="1:256">
-      <c r="A4" s="10">
+    <row r="4" spans="1:257">
+      <c r="B4" s="10">
         <v>8</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -2746,7 +2748,7 @@
       <c r="GF4" s="10"/>
       <c r="GG4" s="10"/>
       <c r="GH4" s="10"/>
-      <c r="GI4" s="12"/>
+      <c r="GI4" s="10"/>
       <c r="GJ4" s="12"/>
       <c r="GK4" s="12"/>
       <c r="GL4" s="12"/>
@@ -2769,126 +2771,126 @@
       <c r="HC4" s="12"/>
       <c r="HD4" s="12"/>
       <c r="HE4" s="12"/>
-      <c r="HF4" s="12">
+      <c r="HF4" s="12"/>
+      <c r="HG4" s="12">
         <v>350</v>
       </c>
-      <c r="HG4" s="12">
+      <c r="HH4" s="12">
         <v>46</v>
       </c>
-      <c r="HH4" s="12">
-        <v>4.5</v>
-      </c>
       <c r="HI4" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="HJ4" s="12">
         <v>23</v>
       </c>
-      <c r="HJ4" s="12">
+      <c r="HK4" s="12">
         <v>4</v>
       </c>
-      <c r="HK4" s="12">
-        <v>33</v>
-      </c>
       <c r="HL4" s="12">
+        <v>33</v>
+      </c>
+      <c r="HM4" s="12">
         <v>11</v>
       </c>
-      <c r="HM4" s="12">
+      <c r="HN4" s="12">
         <v>240</v>
       </c>
-      <c r="HN4" s="12">
+      <c r="HO4" s="12">
         <v>11</v>
       </c>
-      <c r="HO4" s="12">
+      <c r="HP4" s="12">
         <v>22</v>
       </c>
-      <c r="HP4" s="12">
+      <c r="HQ4" s="12">
         <v>17</v>
       </c>
-      <c r="HQ4" s="12">
+      <c r="HR4" s="12">
         <v>23</v>
       </c>
-      <c r="HR4" s="12"/>
-      <c r="HS4" s="12">
+      <c r="HS4" s="12"/>
+      <c r="HT4" s="12">
         <v>1.8</v>
       </c>
-      <c r="HT4" s="12">
-        <v>7.8</v>
-      </c>
-      <c r="HU4" s="12"/>
+      <c r="HU4" s="12">
+        <v>7.8</v>
+      </c>
       <c r="HV4" s="12"/>
       <c r="HW4" s="12"/>
       <c r="HX4" s="12"/>
-      <c r="HY4" s="12">
-        <v>33</v>
-      </c>
-      <c r="HZ4" s="12"/>
-      <c r="IA4" s="12">
+      <c r="HY4" s="12"/>
+      <c r="HZ4" s="12">
+        <v>33</v>
+      </c>
+      <c r="IA4" s="12"/>
+      <c r="IB4" s="12">
         <v>17</v>
       </c>
-      <c r="IB4" s="12">
-        <v>7.8</v>
-      </c>
-      <c r="IC4" s="12"/>
-      <c r="ID4" s="12">
-        <v>4.5</v>
-      </c>
+      <c r="IC4" s="12">
+        <v>7.8</v>
+      </c>
+      <c r="ID4" s="12"/>
       <c r="IE4" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="IF4" s="12">
         <v>13</v>
       </c>
-      <c r="IF4" s="12">
+      <c r="IG4" s="12">
         <v>49</v>
       </c>
-      <c r="IG4" s="12">
-        <v>2</v>
-      </c>
       <c r="IH4" s="12">
         <v>2</v>
       </c>
-      <c r="II4" s="12"/>
+      <c r="II4" s="12">
+        <v>2</v>
+      </c>
       <c r="IJ4" s="12"/>
       <c r="IK4" s="12"/>
       <c r="IL4" s="12"/>
       <c r="IM4" s="12"/>
       <c r="IN4" s="12"/>
-      <c r="IO4" s="12">
-        <v>1.7</v>
-      </c>
+      <c r="IO4" s="12"/>
       <c r="IP4" s="12">
+        <v>1.7</v>
+      </c>
+      <c r="IQ4" s="12">
         <v>4</v>
       </c>
-      <c r="IQ4" s="2"/>
       <c r="IR4" s="2"/>
       <c r="IS4" s="2"/>
       <c r="IT4" s="2"/>
       <c r="IU4" s="2"/>
       <c r="IV4" s="2"/>
+      <c r="IW4" s="2"/>
     </row>
-    <row r="5" spans="1:256" s="1" customFormat="1">
-      <c r="A5" s="10">
+    <row r="5" spans="1:257" s="1" customFormat="1">
+      <c r="B5" s="10">
         <v>8</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11">
         <v>46</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11">
         <v>6.8</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11">
+      <c r="G5" s="11"/>
+      <c r="H5" s="11">
         <v>11</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11">
         <v>130</v>
       </c>
-      <c r="J5" s="11">
+      <c r="K5" s="11">
         <v>70</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11">
-        <v>2</v>
-      </c>
-      <c r="M5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11">
+        <v>2</v>
+      </c>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
@@ -2906,15 +2908,15 @@
       <c r="AB5" s="11"/>
       <c r="AC5" s="11"/>
       <c r="AD5" s="11"/>
-      <c r="AE5" s="11">
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11">
         <v>17</v>
       </c>
-      <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
-      <c r="AH5" s="11">
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11">
         <v>6.8</v>
       </c>
-      <c r="AI5" s="11"/>
       <c r="AJ5" s="11"/>
       <c r="AK5" s="11"/>
       <c r="AL5" s="11"/>
@@ -2924,10 +2926,10 @@
       <c r="AP5" s="11"/>
       <c r="AQ5" s="11"/>
       <c r="AR5" s="11"/>
-      <c r="AS5" s="11">
-        <v>33</v>
-      </c>
-      <c r="AT5" s="11"/>
+      <c r="AS5" s="11"/>
+      <c r="AT5" s="11">
+        <v>33</v>
+      </c>
       <c r="AU5" s="11"/>
       <c r="AV5" s="11"/>
       <c r="AW5" s="11"/>
@@ -2980,10 +2982,10 @@
       <c r="CR5" s="11"/>
       <c r="CS5" s="11"/>
       <c r="CT5" s="11"/>
-      <c r="CU5" s="11">
+      <c r="CU5" s="11"/>
+      <c r="CV5" s="11">
         <v>17</v>
       </c>
-      <c r="CV5" s="11"/>
       <c r="CW5" s="11"/>
       <c r="CX5" s="11"/>
       <c r="CY5" s="11"/>
@@ -2992,10 +2994,10 @@
       <c r="DB5" s="11"/>
       <c r="DC5" s="11"/>
       <c r="DD5" s="11"/>
-      <c r="DE5" s="11">
+      <c r="DE5" s="11"/>
+      <c r="DF5" s="11">
         <v>23</v>
       </c>
-      <c r="DF5" s="11"/>
       <c r="DG5" s="11"/>
       <c r="DH5" s="11"/>
       <c r="DI5" s="11"/>
@@ -3034,21 +3036,21 @@
       <c r="EP5" s="11"/>
       <c r="EQ5" s="11"/>
       <c r="ER5" s="11"/>
-      <c r="ES5" s="10"/>
+      <c r="ES5" s="11"/>
       <c r="ET5" s="10"/>
-      <c r="EU5" s="11"/>
-      <c r="EV5" s="10"/>
-      <c r="EW5" s="11"/>
+      <c r="EU5" s="10"/>
+      <c r="EV5" s="11"/>
+      <c r="EW5" s="10"/>
       <c r="EX5" s="11"/>
       <c r="EY5" s="11"/>
       <c r="EZ5" s="11"/>
       <c r="FA5" s="11"/>
       <c r="FB5" s="11"/>
       <c r="FC5" s="11"/>
-      <c r="FD5" s="11">
-        <v>33</v>
-      </c>
-      <c r="FE5" s="11"/>
+      <c r="FD5" s="11"/>
+      <c r="FE5" s="11">
+        <v>33</v>
+      </c>
       <c r="FF5" s="11"/>
       <c r="FG5" s="11"/>
       <c r="FH5" s="11"/>
@@ -3078,7 +3080,7 @@
       <c r="GF5" s="11"/>
       <c r="GG5" s="11"/>
       <c r="GH5" s="11"/>
-      <c r="GI5" s="12"/>
+      <c r="GI5" s="11"/>
       <c r="GJ5" s="12"/>
       <c r="GK5" s="12"/>
       <c r="GL5" s="12"/>
@@ -3091,10 +3093,10 @@
       <c r="GS5" s="12"/>
       <c r="GT5" s="12"/>
       <c r="GU5" s="12"/>
-      <c r="GV5" s="12">
+      <c r="GV5" s="12"/>
+      <c r="GW5" s="12">
         <v>13</v>
       </c>
-      <c r="GW5" s="12"/>
       <c r="GX5" s="12"/>
       <c r="GY5" s="12"/>
       <c r="GZ5" s="12"/>
@@ -3103,773 +3105,773 @@
       <c r="HC5" s="12"/>
       <c r="HD5" s="12"/>
       <c r="HE5" s="12"/>
-      <c r="HF5" s="12">
+      <c r="HF5" s="12"/>
+      <c r="HG5" s="12">
         <v>240</v>
       </c>
-      <c r="HG5" s="12">
+      <c r="HH5" s="12">
         <v>70</v>
       </c>
-      <c r="HH5" s="12">
-        <v>2</v>
-      </c>
       <c r="HI5" s="12">
+        <v>2</v>
+      </c>
+      <c r="HJ5" s="12">
         <v>14</v>
       </c>
-      <c r="HJ5" s="12">
-        <v>7.8</v>
-      </c>
       <c r="HK5" s="12">
+        <v>7.8</v>
+      </c>
+      <c r="HL5" s="12">
         <v>17</v>
       </c>
-      <c r="HL5" s="12">
-        <v>2</v>
-      </c>
       <c r="HM5" s="12">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="HN5" s="12">
+        <v>33</v>
+      </c>
+      <c r="HO5" s="12">
         <v>14</v>
       </c>
-      <c r="HO5" s="12">
+      <c r="HP5" s="12">
         <v>11</v>
       </c>
-      <c r="HP5" s="12">
+      <c r="HQ5" s="12">
         <v>26</v>
       </c>
-      <c r="HQ5" s="12"/>
       <c r="HR5" s="12"/>
       <c r="HS5" s="12"/>
-      <c r="HT5" s="12">
-        <v>2</v>
-      </c>
+      <c r="HT5" s="12"/>
       <c r="HU5" s="12">
+        <v>2</v>
+      </c>
+      <c r="HV5" s="12">
         <v>49</v>
       </c>
-      <c r="HV5" s="12">
+      <c r="HW5" s="12">
         <v>110</v>
       </c>
-      <c r="HW5" s="12">
+      <c r="HX5" s="12">
         <v>11</v>
       </c>
-      <c r="HX5" s="12">
+      <c r="HY5" s="12">
         <v>22</v>
       </c>
-      <c r="HY5" s="12"/>
-      <c r="HZ5" s="12">
+      <c r="HZ5" s="12"/>
+      <c r="IA5" s="12">
         <v>11</v>
       </c>
-      <c r="IA5" s="12">
+      <c r="IB5" s="12">
         <v>22</v>
       </c>
-      <c r="IB5" s="12">
+      <c r="IC5" s="12">
         <v>13</v>
       </c>
-      <c r="IC5" s="12"/>
-      <c r="ID5" s="12">
-        <v>4.5</v>
-      </c>
+      <c r="ID5" s="12"/>
       <c r="IE5" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="IF5" s="12">
         <v>13</v>
       </c>
-      <c r="IF5" s="12">
+      <c r="IG5" s="12">
         <v>49</v>
       </c>
-      <c r="IG5" s="12">
+      <c r="IH5" s="12">
         <v>6.1</v>
       </c>
-      <c r="IH5" s="12">
+      <c r="II5" s="12">
         <v>4</v>
       </c>
-      <c r="II5" s="12">
+      <c r="IJ5" s="12">
         <v>14</v>
       </c>
-      <c r="IJ5" s="12">
+      <c r="IK5" s="12">
         <v>22</v>
       </c>
-      <c r="IK5" s="12">
-        <v>2</v>
-      </c>
       <c r="IL5" s="12">
+        <v>2</v>
+      </c>
+      <c r="IM5" s="12">
         <v>6.8</v>
       </c>
-      <c r="IM5" s="12">
-        <v>1.7</v>
-      </c>
-      <c r="IN5" s="12"/>
-      <c r="IO5" s="12">
-        <v>1.7</v>
-      </c>
+      <c r="IN5" s="12">
+        <v>1.7</v>
+      </c>
+      <c r="IO5" s="12"/>
       <c r="IP5" s="12">
-        <v>7.8</v>
-      </c>
-      <c r="IQ5" s="2"/>
+        <v>1.7</v>
+      </c>
+      <c r="IQ5" s="12">
+        <v>7.8</v>
+      </c>
       <c r="IR5" s="2"/>
       <c r="IS5" s="2"/>
       <c r="IT5" s="2"/>
       <c r="IU5" s="2"/>
       <c r="IV5" s="2"/>
+      <c r="IW5" s="2"/>
     </row>
-    <row r="6" spans="1:256" s="1" customFormat="1">
-      <c r="A6" s="10">
+    <row r="6" spans="1:257" s="1" customFormat="1">
+      <c r="B6" s="10">
         <v>9</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11">
         <v>79</v>
       </c>
-      <c r="D6" s="11">
+      <c r="E6" s="11">
         <v>13</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11">
-        <v>33</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11">
+        <v>33</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11">
         <v>26</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11">
+      <c r="J6" s="11"/>
+      <c r="K6" s="11">
         <v>130</v>
       </c>
-      <c r="K6" s="11">
-        <v>7.8</v>
-      </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11">
+      <c r="L6" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11">
         <v>110</v>
       </c>
-      <c r="N6" s="11">
-        <v>2</v>
-      </c>
       <c r="O6" s="11">
         <v>2</v>
       </c>
       <c r="P6" s="11">
-        <v>7.8</v>
+        <v>2</v>
       </c>
       <c r="Q6" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="R6" s="11">
         <v>1.8</v>
       </c>
-      <c r="R6" s="11">
+      <c r="S6" s="11">
         <v>11</v>
       </c>
-      <c r="S6" s="11">
+      <c r="T6" s="11">
         <v>79</v>
       </c>
-      <c r="T6" s="11">
-        <v>2</v>
-      </c>
       <c r="U6" s="11">
+        <v>2</v>
+      </c>
+      <c r="V6" s="11">
         <v>170</v>
       </c>
-      <c r="V6" s="11">
-        <v>4.5</v>
-      </c>
       <c r="W6" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="X6" s="11">
         <v>14</v>
       </c>
-      <c r="X6" s="11">
-        <v>33</v>
-      </c>
       <c r="Y6" s="11">
+        <v>33</v>
+      </c>
+      <c r="Z6" s="11">
         <v>49</v>
       </c>
-      <c r="Z6" s="11">
-        <v>2</v>
-      </c>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11">
+      <c r="AA6" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11">
         <v>49</v>
       </c>
-      <c r="AC6" s="11">
+      <c r="AD6" s="11">
         <v>17</v>
       </c>
-      <c r="AD6" s="11">
+      <c r="AE6" s="11">
         <v>22</v>
       </c>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11">
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11">
         <v>4</v>
       </c>
-      <c r="AG6" s="11">
-        <v>2</v>
-      </c>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="11">
+      <c r="AH6" s="11">
+        <v>2</v>
+      </c>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11">
         <v>130</v>
       </c>
-      <c r="AJ6" s="11">
-        <v>33</v>
-      </c>
       <c r="AK6" s="11">
+        <v>33</v>
+      </c>
+      <c r="AL6" s="11">
         <v>130</v>
       </c>
-      <c r="AL6" s="11">
+      <c r="AM6" s="11">
         <v>17</v>
       </c>
-      <c r="AM6" s="11">
+      <c r="AN6" s="11">
         <v>350</v>
       </c>
-      <c r="AN6" s="11">
+      <c r="AO6" s="11">
         <v>49</v>
       </c>
-      <c r="AO6" s="11">
+      <c r="AP6" s="11">
         <v>110</v>
       </c>
-      <c r="AP6" s="11">
+      <c r="AQ6" s="11">
         <v>22</v>
       </c>
-      <c r="AQ6" s="11">
+      <c r="AR6" s="11">
         <v>79</v>
       </c>
-      <c r="AR6" s="11">
+      <c r="AS6" s="11">
         <v>11</v>
       </c>
-      <c r="AS6" s="11"/>
-      <c r="AT6" s="11">
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="11">
         <v>46</v>
       </c>
-      <c r="AU6" s="11">
+      <c r="AV6" s="11">
         <v>4</v>
       </c>
-      <c r="AV6" s="11">
-        <v>2</v>
-      </c>
       <c r="AW6" s="11">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AX6" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="AY6" s="11">
         <v>46</v>
       </c>
-      <c r="AY6" s="11">
+      <c r="AZ6" s="11">
         <v>17</v>
       </c>
-      <c r="AZ6" s="11">
+      <c r="BA6" s="11">
         <v>9.1999999999999993</v>
       </c>
-      <c r="BA6" s="11">
+      <c r="BB6" s="11">
         <v>49</v>
       </c>
-      <c r="BB6" s="11">
+      <c r="BC6" s="11">
         <v>34</v>
       </c>
-      <c r="BC6" s="11">
-        <v>33</v>
-      </c>
       <c r="BD6" s="11">
+        <v>33</v>
+      </c>
+      <c r="BE6" s="11">
         <v>21</v>
       </c>
-      <c r="BE6" s="11">
-        <v>4.5</v>
-      </c>
       <c r="BF6" s="11">
-        <v>7.8</v>
+        <v>4.5</v>
       </c>
       <c r="BG6" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="BH6" s="11">
         <v>110</v>
       </c>
-      <c r="BH6" s="11">
-        <v>1.7</v>
-      </c>
       <c r="BI6" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="BJ6" s="11">
         <v>17</v>
-      </c>
-      <c r="BJ6" s="11">
-        <v>49</v>
       </c>
       <c r="BK6" s="11">
         <v>49</v>
       </c>
       <c r="BL6" s="11">
-        <v>7.8</v>
+        <v>49</v>
       </c>
       <c r="BM6" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="BN6" s="11">
         <v>79</v>
       </c>
-      <c r="BN6" s="11">
+      <c r="BO6" s="11">
         <v>13</v>
       </c>
-      <c r="BO6" s="11">
+      <c r="BP6" s="11">
         <v>17</v>
-      </c>
-      <c r="BP6" s="11">
-        <v>13</v>
       </c>
       <c r="BQ6" s="11">
         <v>13</v>
       </c>
       <c r="BR6" s="11">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="BS6" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="BT6" s="11">
         <v>79</v>
       </c>
-      <c r="BT6" s="11">
+      <c r="BU6" s="11">
         <v>17</v>
       </c>
-      <c r="BU6" s="11">
+      <c r="BV6" s="11">
         <v>11</v>
       </c>
-      <c r="BV6" s="11">
-        <v>2</v>
-      </c>
       <c r="BW6" s="11">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="BX6" s="11">
+        <v>33</v>
+      </c>
+      <c r="BY6" s="11">
         <v>22</v>
       </c>
-      <c r="BY6" s="11">
-        <v>1.7</v>
-      </c>
       <c r="BZ6" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="CA6" s="11">
         <v>13</v>
       </c>
-      <c r="CA6" s="11">
+      <c r="CB6" s="11">
         <v>49</v>
       </c>
-      <c r="CB6" s="11">
+      <c r="CC6" s="11">
         <v>240</v>
       </c>
-      <c r="CC6" s="11">
-        <v>4.5</v>
-      </c>
       <c r="CD6" s="11">
-        <v>33</v>
+        <v>4.5</v>
       </c>
       <c r="CE6" s="11">
-        <v>4.5</v>
+        <v>33</v>
       </c>
       <c r="CF6" s="11">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="CG6" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="CH6" s="11">
         <v>79</v>
       </c>
-      <c r="CH6" s="11">
-        <v>33</v>
-      </c>
       <c r="CI6" s="11">
+        <v>33</v>
+      </c>
+      <c r="CJ6" s="11">
         <v>17</v>
       </c>
-      <c r="CJ6" s="11">
-        <v>4.5</v>
-      </c>
       <c r="CK6" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="CL6" s="11">
         <v>11</v>
       </c>
-      <c r="CL6" s="11">
+      <c r="CM6" s="11">
         <v>6.8</v>
       </c>
-      <c r="CM6" s="11">
+      <c r="CN6" s="11">
         <v>1600</v>
       </c>
-      <c r="CN6" s="11">
+      <c r="CO6" s="11">
         <v>14</v>
       </c>
-      <c r="CO6" s="11">
+      <c r="CP6" s="11">
         <v>170</v>
       </c>
-      <c r="CP6" s="11">
-        <v>7.8</v>
-      </c>
       <c r="CQ6" s="11">
         <v>7.8</v>
       </c>
       <c r="CR6" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="CS6" s="11">
         <v>79</v>
       </c>
-      <c r="CS6" s="11">
-        <v>4.5</v>
-      </c>
-      <c r="CT6" s="11"/>
+      <c r="CT6" s="11">
+        <v>4.5</v>
+      </c>
       <c r="CU6" s="11"/>
-      <c r="CV6" s="11">
+      <c r="CV6" s="11"/>
+      <c r="CW6" s="11">
         <v>11</v>
       </c>
-      <c r="CW6" s="11"/>
-      <c r="CX6" s="11">
-        <v>49</v>
-      </c>
+      <c r="CX6" s="11"/>
       <c r="CY6" s="11">
         <v>49</v>
       </c>
       <c r="CZ6" s="11">
-        <v>4.5</v>
+        <v>49</v>
       </c>
       <c r="DA6" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="DB6" s="11">
         <v>17</v>
       </c>
-      <c r="DB6" s="11">
-        <v>7.8</v>
-      </c>
       <c r="DC6" s="11">
         <v>7.8</v>
       </c>
       <c r="DD6" s="11">
-        <v>2</v>
+        <v>7.8</v>
       </c>
       <c r="DE6" s="11">
+        <v>2</v>
+      </c>
+      <c r="DF6" s="11">
         <v>11</v>
       </c>
-      <c r="DF6" s="11"/>
-      <c r="DG6" s="11">
-        <v>4.5</v>
-      </c>
-      <c r="DH6" s="11"/>
-      <c r="DI6" s="11">
-        <v>2</v>
-      </c>
+      <c r="DG6" s="11"/>
+      <c r="DH6" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="DI6" s="11"/>
       <c r="DJ6" s="11">
         <v>2</v>
       </c>
       <c r="DK6" s="11">
+        <v>2</v>
+      </c>
+      <c r="DL6" s="11">
         <v>1.8</v>
       </c>
-      <c r="DL6" s="11">
+      <c r="DM6" s="11">
         <v>79</v>
       </c>
-      <c r="DM6" s="11"/>
-      <c r="DN6" s="11">
+      <c r="DN6" s="11"/>
+      <c r="DO6" s="11">
         <v>1600</v>
       </c>
-      <c r="DO6" s="11">
-        <v>1.7</v>
-      </c>
       <c r="DP6" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="DQ6" s="11">
         <v>27</v>
       </c>
-      <c r="DQ6" s="11">
+      <c r="DR6" s="11">
         <v>23</v>
       </c>
-      <c r="DR6" s="11">
-        <v>4.5</v>
-      </c>
       <c r="DS6" s="11">
         <v>4.5</v>
       </c>
       <c r="DT6" s="11">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="DU6" s="11">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="DV6" s="11">
-        <v>7.8</v>
+        <v>4.5</v>
       </c>
       <c r="DW6" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="DX6" s="11">
         <v>6.8</v>
       </c>
-      <c r="DX6" s="11">
+      <c r="DY6" s="11">
         <v>49</v>
       </c>
-      <c r="DY6" s="11">
+      <c r="DZ6" s="11">
         <v>13</v>
       </c>
-      <c r="DZ6" s="11">
-        <v>7.8</v>
-      </c>
       <c r="EA6" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="EB6" s="11">
         <v>46</v>
       </c>
-      <c r="EB6" s="11">
+      <c r="EC6" s="11">
         <v>49</v>
       </c>
-      <c r="EC6" s="11"/>
-      <c r="ED6" s="11">
-        <v>33</v>
-      </c>
+      <c r="ED6" s="11"/>
       <c r="EE6" s="11">
-        <v>1.7</v>
+        <v>33</v>
       </c>
       <c r="EF6" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="EG6" s="11">
         <v>70</v>
       </c>
-      <c r="EG6" s="11">
-        <v>1.7</v>
-      </c>
       <c r="EH6" s="11">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="EI6" s="11">
+        <v>2</v>
+      </c>
+      <c r="EJ6" s="11">
         <v>14</v>
       </c>
-      <c r="EJ6" s="11">
-        <v>2</v>
-      </c>
-      <c r="EK6" s="11"/>
+      <c r="EK6" s="11">
+        <v>2</v>
+      </c>
       <c r="EL6" s="11"/>
       <c r="EM6" s="11"/>
       <c r="EN6" s="11"/>
-      <c r="EO6" s="11">
-        <v>4.5</v>
-      </c>
-      <c r="EP6" s="11"/>
+      <c r="EO6" s="11"/>
+      <c r="EP6" s="11">
+        <v>4.5</v>
+      </c>
       <c r="EQ6" s="11"/>
-      <c r="ER6" s="11">
-        <v>4.5</v>
-      </c>
-      <c r="ES6" s="10">
+      <c r="ER6" s="11"/>
+      <c r="ES6" s="11">
         <v>4.5</v>
       </c>
       <c r="ET6" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="EU6" s="10">
         <v>34</v>
       </c>
-      <c r="EU6" s="11">
+      <c r="EV6" s="11">
         <v>23</v>
       </c>
-      <c r="EV6" s="10">
+      <c r="EW6" s="10">
         <v>13</v>
       </c>
-      <c r="EW6" s="11">
+      <c r="EX6" s="11">
         <v>34</v>
       </c>
-      <c r="EX6" s="11">
-        <v>4.5</v>
-      </c>
       <c r="EY6" s="11">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="EZ6" s="11">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="FA6" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="FB6" s="11">
         <v>49</v>
       </c>
-      <c r="FB6" s="11">
-        <v>33</v>
-      </c>
       <c r="FC6" s="11">
-        <v>7.8</v>
-      </c>
-      <c r="FD6" s="11"/>
+        <v>33</v>
+      </c>
+      <c r="FD6" s="11">
+        <v>7.8</v>
+      </c>
       <c r="FE6" s="11"/>
       <c r="FF6" s="11"/>
-      <c r="FG6" s="11">
+      <c r="FG6" s="11"/>
+      <c r="FH6" s="11">
         <v>46</v>
       </c>
-      <c r="FH6" s="11">
+      <c r="FI6" s="11">
         <v>23</v>
       </c>
-      <c r="FI6" s="11"/>
-      <c r="FJ6" s="11">
+      <c r="FJ6" s="11"/>
+      <c r="FK6" s="11">
         <v>22</v>
       </c>
-      <c r="FK6" s="11">
+      <c r="FL6" s="11">
         <v>11</v>
       </c>
-      <c r="FL6" s="11"/>
-      <c r="FM6" s="11">
-        <v>2</v>
-      </c>
-      <c r="FN6" s="11"/>
-      <c r="FO6" s="11">
-        <v>1.7</v>
-      </c>
+      <c r="FM6" s="11"/>
+      <c r="FN6" s="11">
+        <v>2</v>
+      </c>
+      <c r="FO6" s="11"/>
       <c r="FP6" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="FQ6" s="11">
         <v>17</v>
       </c>
-      <c r="FQ6" s="11">
-        <v>2</v>
-      </c>
-      <c r="FR6" s="11"/>
-      <c r="FS6" s="11">
-        <v>33</v>
-      </c>
-      <c r="FT6" s="11"/>
+      <c r="FR6" s="11">
+        <v>2</v>
+      </c>
+      <c r="FS6" s="11"/>
+      <c r="FT6" s="11">
+        <v>33</v>
+      </c>
       <c r="FU6" s="11"/>
-      <c r="FV6" s="11">
+      <c r="FV6" s="11"/>
+      <c r="FW6" s="11">
         <v>4</v>
       </c>
-      <c r="FW6" s="11">
+      <c r="FX6" s="11">
         <v>23</v>
       </c>
-      <c r="FX6" s="11"/>
       <c r="FY6" s="11"/>
       <c r="FZ6" s="11"/>
       <c r="GA6" s="11"/>
-      <c r="GB6" s="11">
-        <v>33</v>
-      </c>
+      <c r="GB6" s="11"/>
       <c r="GC6" s="11">
+        <v>33</v>
+      </c>
+      <c r="GD6" s="11">
         <v>13</v>
       </c>
-      <c r="GD6" s="11">
-        <v>7.8</v>
-      </c>
       <c r="GE6" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="GF6" s="11">
         <v>22</v>
       </c>
-      <c r="GF6" s="11">
-        <v>33</v>
-      </c>
       <c r="GG6" s="11">
+        <v>33</v>
+      </c>
+      <c r="GH6" s="11">
         <v>17</v>
       </c>
-      <c r="GH6" s="11">
+      <c r="GI6" s="11">
         <v>110</v>
-      </c>
-      <c r="GI6" s="12">
-        <v>49</v>
       </c>
       <c r="GJ6" s="12">
         <v>49</v>
       </c>
       <c r="GK6" s="12">
+        <v>49</v>
+      </c>
+      <c r="GL6" s="12">
         <v>13</v>
       </c>
-      <c r="GL6" s="12">
+      <c r="GM6" s="12">
         <v>110</v>
       </c>
-      <c r="GM6" s="12">
+      <c r="GN6" s="12">
         <v>130</v>
       </c>
-      <c r="GN6" s="12">
+      <c r="GO6" s="12">
         <v>23</v>
-      </c>
-      <c r="GO6" s="12">
-        <v>49</v>
       </c>
       <c r="GP6" s="12">
         <v>49</v>
       </c>
       <c r="GQ6" s="12">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="GR6" s="12">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="GS6" s="12">
+        <v>2</v>
+      </c>
+      <c r="GT6" s="12">
         <v>130</v>
       </c>
-      <c r="GT6" s="12">
+      <c r="GU6" s="12">
         <v>17</v>
       </c>
-      <c r="GU6" s="12"/>
-      <c r="GV6" s="12">
+      <c r="GV6" s="12"/>
+      <c r="GW6" s="12">
         <v>4</v>
       </c>
-      <c r="GW6" s="12">
+      <c r="GX6" s="12">
         <v>31</v>
       </c>
-      <c r="GX6" s="12">
-        <v>33</v>
-      </c>
       <c r="GY6" s="12">
+        <v>33</v>
+      </c>
+      <c r="GZ6" s="12">
         <v>79</v>
       </c>
-      <c r="GZ6" s="12">
-        <v>2</v>
-      </c>
       <c r="HA6" s="12">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="HB6" s="12">
+        <v>33</v>
+      </c>
+      <c r="HC6" s="12">
         <v>14</v>
       </c>
-      <c r="HC6" s="12"/>
-      <c r="HD6" s="12">
-        <v>33</v>
-      </c>
+      <c r="HD6" s="12"/>
       <c r="HE6" s="12">
+        <v>33</v>
+      </c>
+      <c r="HF6" s="12">
         <v>17</v>
       </c>
-      <c r="HF6" s="12"/>
-      <c r="HG6" s="12">
+      <c r="HG6" s="12"/>
+      <c r="HH6" s="12">
         <v>49</v>
       </c>
-      <c r="HH6" s="12">
-        <v>1.7</v>
-      </c>
-      <c r="HI6" s="12"/>
-      <c r="HJ6" s="12">
+      <c r="HI6" s="12">
+        <v>1.7</v>
+      </c>
+      <c r="HJ6" s="12"/>
+      <c r="HK6" s="12">
         <v>11</v>
       </c>
-      <c r="HK6" s="12">
-        <v>7.8</v>
-      </c>
-      <c r="HL6" s="12"/>
-      <c r="HM6" s="12">
+      <c r="HL6" s="12">
+        <v>7.8</v>
+      </c>
+      <c r="HM6" s="12"/>
+      <c r="HN6" s="12">
         <v>13</v>
       </c>
-      <c r="HN6" s="12"/>
-      <c r="HO6" s="12">
+      <c r="HO6" s="12"/>
+      <c r="HP6" s="12">
         <v>11</v>
       </c>
-      <c r="HP6" s="12"/>
       <c r="HQ6" s="12"/>
-      <c r="HR6" s="12">
+      <c r="HR6" s="12"/>
+      <c r="HS6" s="12">
         <v>14</v>
       </c>
-      <c r="HS6" s="12">
-        <v>1.7</v>
-      </c>
       <c r="HT6" s="12">
-        <v>2</v>
-      </c>
-      <c r="HU6" s="12"/>
+        <v>1.7</v>
+      </c>
+      <c r="HU6" s="12">
+        <v>2</v>
+      </c>
       <c r="HV6" s="12"/>
-      <c r="HW6" s="12">
+      <c r="HW6" s="12"/>
+      <c r="HX6" s="12">
         <v>23</v>
       </c>
-      <c r="HX6" s="12"/>
       <c r="HY6" s="12"/>
       <c r="HZ6" s="12"/>
-      <c r="IA6" s="12">
-        <v>4.5</v>
-      </c>
+      <c r="IA6" s="12"/>
       <c r="IB6" s="12">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="IC6" s="12">
-        <v>1.7</v>
-      </c>
-      <c r="ID6" s="12"/>
-      <c r="IE6" s="12">
-        <v>4.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="ID6" s="12">
+        <v>1.7</v>
+      </c>
+      <c r="IE6" s="12"/>
       <c r="IF6" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="IG6" s="12">
         <v>49</v>
       </c>
-      <c r="IG6" s="12">
-        <v>1.7</v>
-      </c>
-      <c r="IH6" s="12"/>
-      <c r="II6" s="12">
-        <v>7.8</v>
-      </c>
+      <c r="IH6" s="12">
+        <v>1.7</v>
+      </c>
+      <c r="II6" s="12"/>
       <c r="IJ6" s="12">
-        <v>33</v>
+        <v>7.8</v>
       </c>
       <c r="IK6" s="12">
-        <v>4.5</v>
+        <v>33</v>
       </c>
       <c r="IL6" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="IM6" s="12">
         <v>6.8</v>
       </c>
-      <c r="IM6" s="12">
-        <v>2</v>
-      </c>
       <c r="IN6" s="12">
         <v>2</v>
       </c>
-      <c r="IO6" s="12"/>
-      <c r="IP6" s="12">
+      <c r="IO6" s="12">
+        <v>2</v>
+      </c>
+      <c r="IP6" s="12"/>
+      <c r="IQ6" s="12">
         <v>6.8</v>
       </c>
-      <c r="IQ6" s="2"/>
       <c r="IR6" s="2"/>
       <c r="IS6" s="2"/>
       <c r="IT6" s="2"/>
       <c r="IU6" s="2"/>
       <c r="IV6" s="2"/>
+      <c r="IW6" s="2"/>
     </row>
-    <row r="7" spans="1:256" ht="16.5" customHeight="1">
-      <c r="A7" s="10">
+    <row r="7" spans="1:257" ht="16.5" customHeight="1">
+      <c r="B7" s="10">
         <v>17</v>
       </c>
-      <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -3914,21 +3916,21 @@
       <c r="AR7" s="11"/>
       <c r="AS7" s="11"/>
       <c r="AT7" s="11"/>
-      <c r="AU7" s="11">
+      <c r="AU7" s="11"/>
+      <c r="AV7" s="11">
         <v>11</v>
       </c>
-      <c r="AV7" s="11"/>
       <c r="AW7" s="11"/>
       <c r="AX7" s="11"/>
       <c r="AY7" s="11"/>
       <c r="AZ7" s="11"/>
-      <c r="BA7" s="11">
+      <c r="BA7" s="11"/>
+      <c r="BB7" s="11">
         <v>49</v>
       </c>
-      <c r="BB7" s="11">
+      <c r="BC7" s="11">
         <v>11</v>
       </c>
-      <c r="BC7" s="11"/>
       <c r="BD7" s="11"/>
       <c r="BE7" s="11"/>
       <c r="BF7" s="11"/>
@@ -4022,13 +4024,13 @@
       <c r="EP7" s="11"/>
       <c r="EQ7" s="11"/>
       <c r="ER7" s="11"/>
-      <c r="ES7" s="10"/>
+      <c r="ES7" s="11"/>
       <c r="ET7" s="10"/>
       <c r="EU7" s="10"/>
       <c r="EV7" s="10"/>
       <c r="EW7" s="10"/>
       <c r="EX7" s="10"/>
-      <c r="EY7" s="11"/>
+      <c r="EY7" s="10"/>
       <c r="EZ7" s="11"/>
       <c r="FA7" s="11"/>
       <c r="FB7" s="11"/>
@@ -4064,7 +4066,7 @@
       <c r="GF7" s="11"/>
       <c r="GG7" s="11"/>
       <c r="GH7" s="11"/>
-      <c r="GI7" s="12"/>
+      <c r="GI7" s="11"/>
       <c r="GJ7" s="12"/>
       <c r="GK7" s="12"/>
       <c r="GL7" s="12"/>
@@ -4124,21 +4126,21 @@
       <c r="IN7" s="12"/>
       <c r="IO7" s="12"/>
       <c r="IP7" s="12"/>
-      <c r="IQ7" s="2"/>
+      <c r="IQ7" s="12"/>
       <c r="IR7" s="2"/>
       <c r="IS7" s="2"/>
       <c r="IT7" s="2"/>
       <c r="IU7" s="2"/>
       <c r="IV7" s="2"/>
+      <c r="IW7" s="2"/>
     </row>
-    <row r="8" spans="1:256">
-      <c r="A8" s="10">
+    <row r="8" spans="1:257">
+      <c r="B8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -4188,23 +4190,23 @@
       <c r="AX8" s="11"/>
       <c r="AY8" s="11"/>
       <c r="AZ8" s="11"/>
-      <c r="BA8" s="11">
-        <v>33</v>
-      </c>
+      <c r="BA8" s="11"/>
       <c r="BB8" s="11">
+        <v>33</v>
+      </c>
+      <c r="BC8" s="11">
         <v>49</v>
       </c>
-      <c r="BC8" s="11"/>
       <c r="BD8" s="11"/>
       <c r="BE8" s="11"/>
       <c r="BF8" s="11"/>
       <c r="BG8" s="11"/>
       <c r="BH8" s="11"/>
       <c r="BI8" s="11"/>
-      <c r="BJ8" s="11">
+      <c r="BJ8" s="11"/>
+      <c r="BK8" s="11">
         <v>27</v>
       </c>
-      <c r="BK8" s="11"/>
       <c r="BL8" s="11"/>
       <c r="BM8" s="11"/>
       <c r="BN8" s="11"/>
@@ -4290,13 +4292,13 @@
       <c r="EP8" s="11"/>
       <c r="EQ8" s="11"/>
       <c r="ER8" s="11"/>
-      <c r="ES8" s="10"/>
+      <c r="ES8" s="11"/>
       <c r="ET8" s="10"/>
       <c r="EU8" s="10"/>
       <c r="EV8" s="10"/>
       <c r="EW8" s="10"/>
       <c r="EX8" s="10"/>
-      <c r="EY8" s="11"/>
+      <c r="EY8" s="10"/>
       <c r="EZ8" s="11"/>
       <c r="FA8" s="11"/>
       <c r="FB8" s="11"/>
@@ -4332,7 +4334,7 @@
       <c r="GF8" s="11"/>
       <c r="GG8" s="11"/>
       <c r="GH8" s="11"/>
-      <c r="GI8" s="12"/>
+      <c r="GI8" s="11"/>
       <c r="GJ8" s="12"/>
       <c r="GK8" s="12"/>
       <c r="GL8" s="12"/>
@@ -4392,18 +4394,18 @@
       <c r="IN8" s="12"/>
       <c r="IO8" s="12"/>
       <c r="IP8" s="12"/>
-      <c r="IQ8" s="2"/>
+      <c r="IQ8" s="12"/>
       <c r="IR8" s="2"/>
       <c r="IS8" s="2"/>
       <c r="IT8" s="2"/>
       <c r="IU8" s="2"/>
       <c r="IV8" s="2"/>
+      <c r="IW8" s="2"/>
     </row>
-    <row r="9" spans="1:256">
-      <c r="A9" s="10">
+    <row r="9" spans="1:257">
+      <c r="B9" s="10">
         <v>12</v>
       </c>
-      <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -4481,10 +4483,10 @@
       <c r="BY9" s="11"/>
       <c r="BZ9" s="11"/>
       <c r="CA9" s="11"/>
-      <c r="CB9" s="11">
+      <c r="CB9" s="11"/>
+      <c r="CC9" s="11">
         <v>70</v>
       </c>
-      <c r="CC9" s="11"/>
       <c r="CD9" s="11"/>
       <c r="CE9" s="11"/>
       <c r="CF9" s="11"/>
@@ -4499,13 +4501,13 @@
       <c r="CO9" s="11"/>
       <c r="CP9" s="11"/>
       <c r="CQ9" s="11"/>
-      <c r="CR9" s="11">
-        <v>33</v>
-      </c>
+      <c r="CR9" s="11"/>
       <c r="CS9" s="11">
-        <v>4.5</v>
-      </c>
-      <c r="CT9" s="11"/>
+        <v>33</v>
+      </c>
+      <c r="CT9" s="11">
+        <v>4.5</v>
+      </c>
       <c r="CU9" s="11"/>
       <c r="CV9" s="11"/>
       <c r="CW9" s="11"/>
@@ -4514,26 +4516,26 @@
       <c r="CZ9" s="11"/>
       <c r="DA9" s="11"/>
       <c r="DB9" s="11"/>
-      <c r="DC9" s="11">
-        <v>1.7</v>
-      </c>
+      <c r="DC9" s="11"/>
       <c r="DD9" s="11">
         <v>1.7</v>
       </c>
       <c r="DE9" s="11">
         <v>1.7</v>
       </c>
-      <c r="DF9" s="11"/>
+      <c r="DF9" s="11">
+        <v>1.7</v>
+      </c>
       <c r="DG9" s="11"/>
       <c r="DH9" s="11"/>
       <c r="DI9" s="11"/>
       <c r="DJ9" s="11"/>
       <c r="DK9" s="11"/>
       <c r="DL9" s="11"/>
-      <c r="DM9" s="11">
-        <v>2</v>
-      </c>
-      <c r="DN9" s="11"/>
+      <c r="DM9" s="11"/>
+      <c r="DN9" s="11">
+        <v>2</v>
+      </c>
       <c r="DO9" s="11"/>
       <c r="DP9" s="11"/>
       <c r="DQ9" s="11"/>
@@ -4546,10 +4548,10 @@
       <c r="DX9" s="11"/>
       <c r="DY9" s="11"/>
       <c r="DZ9" s="11"/>
-      <c r="EA9" s="11">
+      <c r="EA9" s="11"/>
+      <c r="EB9" s="11">
         <v>350</v>
       </c>
-      <c r="EB9" s="11"/>
       <c r="EC9" s="11"/>
       <c r="ED9" s="11"/>
       <c r="EE9" s="11"/>
@@ -4566,25 +4568,25 @@
       <c r="EP9" s="11"/>
       <c r="EQ9" s="11"/>
       <c r="ER9" s="11"/>
-      <c r="ES9" s="10"/>
+      <c r="ES9" s="11"/>
       <c r="ET9" s="10"/>
       <c r="EU9" s="10"/>
       <c r="EV9" s="10"/>
       <c r="EW9" s="10"/>
       <c r="EX9" s="10"/>
-      <c r="EY9" s="11"/>
-      <c r="EZ9" s="11">
-        <v>2</v>
-      </c>
-      <c r="FA9" s="11"/>
+      <c r="EY9" s="10"/>
+      <c r="EZ9" s="11"/>
+      <c r="FA9" s="11">
+        <v>2</v>
+      </c>
       <c r="FB9" s="11"/>
       <c r="FC9" s="11"/>
       <c r="FD9" s="11"/>
       <c r="FE9" s="11"/>
-      <c r="FF9" s="11">
+      <c r="FF9" s="11"/>
+      <c r="FG9" s="11">
         <v>110</v>
       </c>
-      <c r="FG9" s="11"/>
       <c r="FH9" s="11"/>
       <c r="FI9" s="11"/>
       <c r="FJ9" s="11"/>
@@ -4612,7 +4614,7 @@
       <c r="GF9" s="11"/>
       <c r="GG9" s="11"/>
       <c r="GH9" s="11"/>
-      <c r="GI9" s="12"/>
+      <c r="GI9" s="11"/>
       <c r="GJ9" s="12"/>
       <c r="GK9" s="12"/>
       <c r="GL9" s="12"/>
@@ -4653,16 +4655,16 @@
       <c r="HU9" s="12"/>
       <c r="HV9" s="12"/>
       <c r="HW9" s="12"/>
-      <c r="HX9" s="12">
-        <v>1.7</v>
-      </c>
+      <c r="HX9" s="12"/>
       <c r="HY9" s="12">
+        <v>1.7</v>
+      </c>
+      <c r="HZ9" s="12">
         <v>23</v>
       </c>
-      <c r="HZ9" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="IA9" s="12"/>
+      <c r="IA9" s="12">
+        <v>4.5</v>
+      </c>
       <c r="IB9" s="12"/>
       <c r="IC9" s="12"/>
       <c r="ID9" s="12"/>
@@ -4678,18 +4680,18 @@
       <c r="IN9" s="12"/>
       <c r="IO9" s="12"/>
       <c r="IP9" s="12"/>
-      <c r="IQ9" s="2"/>
+      <c r="IQ9" s="12"/>
       <c r="IR9" s="2"/>
       <c r="IS9" s="2"/>
       <c r="IT9" s="2"/>
       <c r="IU9" s="2"/>
       <c r="IV9" s="2"/>
+      <c r="IW9" s="2"/>
     </row>
-    <row r="10" spans="1:256">
-      <c r="A10" s="10">
+    <row r="10" spans="1:257">
+      <c r="B10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -4749,10 +4751,10 @@
       <c r="BG10" s="11"/>
       <c r="BH10" s="11"/>
       <c r="BI10" s="11"/>
-      <c r="BJ10" s="11">
+      <c r="BJ10" s="11"/>
+      <c r="BK10" s="11">
         <v>70</v>
       </c>
-      <c r="BK10" s="11"/>
       <c r="BL10" s="11"/>
       <c r="BM10" s="11"/>
       <c r="BN10" s="11"/>
@@ -4838,13 +4840,13 @@
       <c r="EP10" s="11"/>
       <c r="EQ10" s="11"/>
       <c r="ER10" s="11"/>
-      <c r="ES10" s="10"/>
+      <c r="ES10" s="11"/>
       <c r="ET10" s="10"/>
       <c r="EU10" s="10"/>
       <c r="EV10" s="10"/>
       <c r="EW10" s="10"/>
       <c r="EX10" s="10"/>
-      <c r="EY10" s="11"/>
+      <c r="EY10" s="10"/>
       <c r="EZ10" s="11"/>
       <c r="FA10" s="11"/>
       <c r="FB10" s="11"/>
@@ -4880,7 +4882,7 @@
       <c r="GF10" s="11"/>
       <c r="GG10" s="11"/>
       <c r="GH10" s="11"/>
-      <c r="GI10" s="12"/>
+      <c r="GI10" s="11"/>
       <c r="GJ10" s="12"/>
       <c r="GK10" s="12"/>
       <c r="GL10" s="12"/>
@@ -4940,18 +4942,18 @@
       <c r="IN10" s="12"/>
       <c r="IO10" s="12"/>
       <c r="IP10" s="12"/>
-      <c r="IQ10" s="2"/>
+      <c r="IQ10" s="12"/>
       <c r="IR10" s="2"/>
       <c r="IS10" s="2"/>
       <c r="IT10" s="2"/>
       <c r="IU10" s="2"/>
       <c r="IV10" s="2"/>
+      <c r="IW10" s="2"/>
     </row>
-    <row r="11" spans="1:256">
-      <c r="A11" s="10">
+    <row r="11" spans="1:257">
+      <c r="B11" s="10">
         <v>16</v>
       </c>
-      <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -5075,10 +5077,10 @@
       <c r="DS11" s="11"/>
       <c r="DT11" s="11"/>
       <c r="DU11" s="11"/>
-      <c r="DV11" s="11">
-        <v>1.7</v>
-      </c>
-      <c r="DW11" s="11"/>
+      <c r="DV11" s="11"/>
+      <c r="DW11" s="11">
+        <v>1.7</v>
+      </c>
       <c r="DX11" s="11"/>
       <c r="DY11" s="11"/>
       <c r="DZ11" s="11"/>
@@ -5099,16 +5101,16 @@
       <c r="EO11" s="11"/>
       <c r="EP11" s="11"/>
       <c r="EQ11" s="11"/>
-      <c r="ER11" s="11">
-        <v>1.7</v>
-      </c>
-      <c r="ES11" s="10"/>
+      <c r="ER11" s="11"/>
+      <c r="ES11" s="11">
+        <v>1.7</v>
+      </c>
       <c r="ET11" s="10"/>
       <c r="EU11" s="10"/>
       <c r="EV11" s="10"/>
       <c r="EW11" s="10"/>
       <c r="EX11" s="10"/>
-      <c r="EY11" s="11"/>
+      <c r="EY11" s="10"/>
       <c r="EZ11" s="11"/>
       <c r="FA11" s="11"/>
       <c r="FB11" s="11"/>
@@ -5127,18 +5129,18 @@
       <c r="FO11" s="11"/>
       <c r="FP11" s="11"/>
       <c r="FQ11" s="11"/>
-      <c r="FR11" s="11">
+      <c r="FR11" s="11"/>
+      <c r="FS11" s="11">
         <v>23</v>
       </c>
-      <c r="FS11" s="11"/>
       <c r="FT11" s="11"/>
       <c r="FU11" s="11"/>
       <c r="FV11" s="11"/>
       <c r="FW11" s="11"/>
-      <c r="FX11" s="11">
-        <v>33</v>
-      </c>
-      <c r="FY11" s="11"/>
+      <c r="FX11" s="11"/>
+      <c r="FY11" s="11">
+        <v>33</v>
+      </c>
       <c r="FZ11" s="11"/>
       <c r="GA11" s="11"/>
       <c r="GB11" s="11"/>
@@ -5148,7 +5150,7 @@
       <c r="GF11" s="11"/>
       <c r="GG11" s="11"/>
       <c r="GH11" s="11"/>
-      <c r="GI11" s="12"/>
+      <c r="GI11" s="11"/>
       <c r="GJ11" s="12"/>
       <c r="GK11" s="12"/>
       <c r="GL11" s="12"/>
@@ -5208,18 +5210,18 @@
       <c r="IN11" s="12"/>
       <c r="IO11" s="12"/>
       <c r="IP11" s="12"/>
-      <c r="IQ11" s="2"/>
+      <c r="IQ11" s="12"/>
       <c r="IR11" s="2"/>
       <c r="IS11" s="2"/>
       <c r="IT11" s="2"/>
       <c r="IU11" s="2"/>
       <c r="IV11" s="2"/>
+      <c r="IW11" s="2"/>
     </row>
-    <row r="12" spans="1:256">
-      <c r="A12" s="10">
+    <row r="12" spans="1:257">
+      <c r="B12" s="10">
         <v>14</v>
       </c>
-      <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -5379,10 +5381,10 @@
       <c r="FC12" s="10"/>
       <c r="FD12" s="10"/>
       <c r="FE12" s="10"/>
-      <c r="FF12" s="10">
+      <c r="FF12" s="10"/>
+      <c r="FG12" s="10">
         <v>130</v>
       </c>
-      <c r="FG12" s="10"/>
       <c r="FH12" s="10"/>
       <c r="FI12" s="10"/>
       <c r="FJ12" s="10"/>
@@ -5410,7 +5412,7 @@
       <c r="GF12" s="10"/>
       <c r="GG12" s="10"/>
       <c r="GH12" s="10"/>
-      <c r="GI12" s="12"/>
+      <c r="GI12" s="10"/>
       <c r="GJ12" s="12"/>
       <c r="GK12" s="12"/>
       <c r="GL12" s="12"/>
@@ -5451,16 +5453,16 @@
       <c r="HU12" s="12"/>
       <c r="HV12" s="12"/>
       <c r="HW12" s="12"/>
-      <c r="HX12" s="12">
+      <c r="HX12" s="12"/>
+      <c r="HY12" s="12">
         <v>17</v>
       </c>
-      <c r="HY12" s="12">
+      <c r="HZ12" s="12">
         <v>49</v>
       </c>
-      <c r="HZ12" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="IA12" s="12"/>
+      <c r="IA12" s="12">
+        <v>4.5</v>
+      </c>
       <c r="IB12" s="12"/>
       <c r="IC12" s="12"/>
       <c r="ID12" s="12"/>
@@ -5476,18 +5478,18 @@
       <c r="IN12" s="12"/>
       <c r="IO12" s="12"/>
       <c r="IP12" s="12"/>
-      <c r="IQ12" s="2"/>
+      <c r="IQ12" s="12"/>
       <c r="IR12" s="2"/>
       <c r="IS12" s="2"/>
       <c r="IT12" s="2"/>
       <c r="IU12" s="2"/>
       <c r="IV12" s="2"/>
+      <c r="IW12" s="2"/>
     </row>
-    <row r="13" spans="1:256">
-      <c r="A13" s="10">
+    <row r="13" spans="1:257">
+      <c r="B13" s="10">
         <v>13</v>
       </c>
-      <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -5676,7 +5678,7 @@
       <c r="GF13" s="10"/>
       <c r="GG13" s="10"/>
       <c r="GH13" s="10"/>
-      <c r="GI13" s="12"/>
+      <c r="GI13" s="10"/>
       <c r="GJ13" s="12"/>
       <c r="GK13" s="12"/>
       <c r="GL13" s="12"/>
@@ -5704,8 +5706,8 @@
       <c r="HH13" s="12"/>
       <c r="HI13" s="12"/>
       <c r="HJ13" s="12"/>
-      <c r="HK13" s="13"/>
-      <c r="HL13" s="12"/>
+      <c r="HK13" s="12"/>
+      <c r="HL13" s="13"/>
       <c r="HM13" s="12"/>
       <c r="HN13" s="12"/>
       <c r="HO13" s="12"/>
@@ -5717,13 +5719,13 @@
       <c r="HU13" s="12"/>
       <c r="HV13" s="12"/>
       <c r="HW13" s="12"/>
-      <c r="HX13" s="12">
-        <v>33</v>
-      </c>
+      <c r="HX13" s="12"/>
       <c r="HY13" s="12">
-        <v>2</v>
-      </c>
-      <c r="HZ13" s="12"/>
+        <v>33</v>
+      </c>
+      <c r="HZ13" s="12">
+        <v>2</v>
+      </c>
       <c r="IA13" s="12"/>
       <c r="IB13" s="12"/>
       <c r="IC13" s="12"/>
@@ -5740,545 +5742,545 @@
       <c r="IN13" s="12"/>
       <c r="IO13" s="12"/>
       <c r="IP13" s="12"/>
-      <c r="IQ13" s="2"/>
+      <c r="IQ13" s="12"/>
       <c r="IR13" s="2"/>
       <c r="IS13" s="2"/>
       <c r="IT13" s="2"/>
       <c r="IU13" s="2"/>
       <c r="IV13" s="2"/>
+      <c r="IW13" s="2"/>
     </row>
-    <row r="14" spans="1:256" s="1" customFormat="1">
-      <c r="A14" s="10">
+    <row r="14" spans="1:257" s="1" customFormat="1">
+      <c r="B14" s="10">
         <v>10</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11">
         <v>170</v>
       </c>
-      <c r="D14" s="11">
-        <v>2</v>
-      </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="11">
+        <v>2</v>
+      </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="11">
+      <c r="H14" s="11"/>
+      <c r="I14" s="11">
         <v>27</v>
       </c>
-      <c r="I14" s="11"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="11">
+      <c r="K14" s="11"/>
+      <c r="L14" s="11">
         <v>13</v>
       </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11">
+      <c r="M14" s="11"/>
+      <c r="N14" s="11">
         <v>49</v>
       </c>
-      <c r="N14" s="11">
-        <v>2</v>
-      </c>
       <c r="O14" s="11">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="P14" s="11">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q14" s="11">
-        <v>7.8</v>
+        <v>4.5</v>
       </c>
       <c r="R14" s="11">
-        <v>1.7</v>
+        <v>7.8</v>
       </c>
       <c r="S14" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="T14" s="11">
         <v>4</v>
       </c>
-      <c r="T14" s="11">
-        <v>7.8</v>
-      </c>
-      <c r="U14" s="11"/>
+      <c r="U14" s="11">
+        <v>7.8</v>
+      </c>
       <c r="V14" s="11"/>
-      <c r="W14" s="11">
+      <c r="W14" s="11"/>
+      <c r="X14" s="11">
         <v>79</v>
       </c>
-      <c r="X14" s="11">
-        <v>1.7</v>
-      </c>
       <c r="Y14" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="Z14" s="11">
         <v>17</v>
       </c>
-      <c r="Z14" s="11">
-        <v>1.7</v>
-      </c>
       <c r="AA14" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="AB14" s="11">
         <v>49</v>
       </c>
-      <c r="AB14" s="11">
-        <v>7.8</v>
-      </c>
       <c r="AC14" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="AD14" s="11">
         <v>11</v>
       </c>
-      <c r="AD14" s="11">
+      <c r="AE14" s="11">
         <v>4</v>
       </c>
-      <c r="AE14" s="11"/>
       <c r="AF14" s="11"/>
-      <c r="AG14" s="11">
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11">
         <v>13</v>
       </c>
-      <c r="AH14" s="11"/>
-      <c r="AI14" s="11">
-        <v>7.8</v>
-      </c>
+      <c r="AI14" s="11"/>
       <c r="AJ14" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="AK14" s="11">
         <v>23</v>
       </c>
-      <c r="AK14" s="11">
+      <c r="AL14" s="11">
         <v>79</v>
       </c>
-      <c r="AL14" s="11">
+      <c r="AM14" s="11">
         <v>13</v>
       </c>
-      <c r="AM14" s="11">
+      <c r="AN14" s="11">
         <v>170</v>
       </c>
-      <c r="AN14" s="11">
+      <c r="AO14" s="11">
         <v>13</v>
       </c>
-      <c r="AO14" s="11">
+      <c r="AP14" s="11">
         <v>23</v>
-      </c>
-      <c r="AP14" s="11">
-        <v>17</v>
       </c>
       <c r="AQ14" s="11">
         <v>17</v>
       </c>
       <c r="AR14" s="11">
-        <v>7.8</v>
-      </c>
-      <c r="AS14" s="11"/>
-      <c r="AT14" s="11">
+        <v>17</v>
+      </c>
+      <c r="AS14" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="AT14" s="11"/>
+      <c r="AU14" s="11">
         <v>130</v>
       </c>
-      <c r="AU14" s="11">
-        <v>4.5</v>
-      </c>
       <c r="AV14" s="11">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="AW14" s="11">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AX14" s="11">
-        <v>33</v>
+        <v>1.7</v>
       </c>
       <c r="AY14" s="11">
+        <v>33</v>
+      </c>
+      <c r="AZ14" s="11">
         <v>11</v>
       </c>
-      <c r="AZ14" s="11">
+      <c r="BA14" s="11">
         <v>17</v>
       </c>
-      <c r="BA14" s="11"/>
       <c r="BB14" s="11"/>
-      <c r="BC14" s="11">
+      <c r="BC14" s="11"/>
+      <c r="BD14" s="11">
         <v>17</v>
       </c>
-      <c r="BD14" s="11">
-        <v>7.8</v>
-      </c>
-      <c r="BE14" s="11"/>
-      <c r="BF14" s="11">
-        <v>2</v>
-      </c>
+      <c r="BE14" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="BF14" s="11"/>
       <c r="BG14" s="11">
+        <v>2</v>
+      </c>
+      <c r="BH14" s="11">
         <v>170</v>
       </c>
-      <c r="BH14" s="11">
-        <v>1.7</v>
-      </c>
       <c r="BI14" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="BJ14" s="11">
         <v>23</v>
       </c>
-      <c r="BJ14" s="11"/>
-      <c r="BK14" s="11">
+      <c r="BK14" s="11"/>
+      <c r="BL14" s="11">
         <v>14</v>
       </c>
-      <c r="BL14" s="11">
+      <c r="BM14" s="11">
         <v>4</v>
       </c>
-      <c r="BM14" s="11">
-        <v>33</v>
-      </c>
       <c r="BN14" s="11">
+        <v>33</v>
+      </c>
+      <c r="BO14" s="11">
         <v>13</v>
       </c>
-      <c r="BO14" s="11">
+      <c r="BP14" s="11">
         <v>9.3000000000000007</v>
       </c>
-      <c r="BP14" s="11">
-        <v>7.8</v>
-      </c>
       <c r="BQ14" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="BR14" s="11">
         <v>13</v>
       </c>
-      <c r="BR14" s="11">
-        <v>1.7</v>
-      </c>
       <c r="BS14" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="BT14" s="11">
         <v>79</v>
       </c>
-      <c r="BT14" s="11">
+      <c r="BU14" s="11">
         <v>14</v>
       </c>
-      <c r="BU14" s="11">
-        <v>7.8</v>
-      </c>
       <c r="BV14" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="BW14" s="11">
         <v>6.8</v>
       </c>
-      <c r="BW14" s="11">
+      <c r="BX14" s="11">
         <v>23</v>
       </c>
-      <c r="BX14" s="11">
-        <v>2</v>
-      </c>
       <c r="BY14" s="11">
         <v>2</v>
       </c>
       <c r="BZ14" s="11">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="CA14" s="11">
-        <v>7.8</v>
-      </c>
-      <c r="CB14" s="11"/>
-      <c r="CC14" s="11">
-        <v>1.7</v>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="CB14" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="CC14" s="11"/>
       <c r="CD14" s="11">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="CE14" s="11">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="CF14" s="11">
         <v>1.7</v>
       </c>
       <c r="CG14" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="CH14" s="11">
         <v>170</v>
       </c>
-      <c r="CH14" s="11">
-        <v>7.8</v>
-      </c>
-      <c r="CI14" s="11"/>
+      <c r="CI14" s="11">
+        <v>7.8</v>
+      </c>
       <c r="CJ14" s="11"/>
-      <c r="CK14" s="11">
-        <v>4.5</v>
-      </c>
+      <c r="CK14" s="11"/>
       <c r="CL14" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="CM14" s="11">
         <v>11</v>
       </c>
-      <c r="CM14" s="11">
+      <c r="CN14" s="11">
         <v>350</v>
       </c>
-      <c r="CN14" s="11">
+      <c r="CO14" s="11">
         <v>11</v>
       </c>
-      <c r="CO14" s="11">
+      <c r="CP14" s="11">
         <v>240</v>
       </c>
-      <c r="CP14" s="11">
+      <c r="CQ14" s="11">
         <v>1.8</v>
       </c>
-      <c r="CQ14" s="11">
+      <c r="CR14" s="11">
         <v>6.1</v>
       </c>
-      <c r="CR14" s="11"/>
-      <c r="CS14" s="11">
-        <v>2</v>
-      </c>
-      <c r="CT14" s="11"/>
+      <c r="CS14" s="11"/>
+      <c r="CT14" s="11">
+        <v>2</v>
+      </c>
       <c r="CU14" s="11"/>
       <c r="CV14" s="11"/>
       <c r="CW14" s="11"/>
       <c r="CX14" s="11"/>
-      <c r="CY14" s="11">
+      <c r="CY14" s="11"/>
+      <c r="CZ14" s="11">
         <v>79</v>
       </c>
-      <c r="CZ14" s="11">
-        <v>1.7</v>
-      </c>
-      <c r="DA14" s="11"/>
+      <c r="DA14" s="11">
+        <v>1.7</v>
+      </c>
       <c r="DB14" s="11"/>
-      <c r="DC14" s="11">
+      <c r="DC14" s="11"/>
+      <c r="DD14" s="11">
         <v>4</v>
       </c>
-      <c r="DD14" s="11"/>
       <c r="DE14" s="11"/>
       <c r="DF14" s="11"/>
-      <c r="DG14" s="11">
-        <v>7.8</v>
-      </c>
-      <c r="DH14" s="11"/>
-      <c r="DI14" s="11">
-        <v>2</v>
-      </c>
-      <c r="DJ14" s="11"/>
+      <c r="DG14" s="11"/>
+      <c r="DH14" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="DI14" s="11"/>
+      <c r="DJ14" s="11">
+        <v>2</v>
+      </c>
       <c r="DK14" s="11"/>
-      <c r="DL14" s="11">
+      <c r="DL14" s="11"/>
+      <c r="DM14" s="11">
         <v>49</v>
       </c>
-      <c r="DM14" s="11"/>
-      <c r="DN14" s="11">
+      <c r="DN14" s="11"/>
+      <c r="DO14" s="11">
         <v>540</v>
       </c>
-      <c r="DO14" s="11">
-        <v>4.5</v>
-      </c>
       <c r="DP14" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="DQ14" s="11">
         <v>34</v>
       </c>
-      <c r="DQ14" s="11">
-        <v>4.5</v>
-      </c>
       <c r="DR14" s="11">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="DS14" s="11">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="DT14" s="11">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="DU14" s="11">
+        <v>2</v>
+      </c>
+      <c r="DV14" s="11">
         <v>13</v>
       </c>
-      <c r="DV14" s="11">
-        <v>4.5</v>
-      </c>
       <c r="DW14" s="11">
         <v>4.5</v>
       </c>
-      <c r="DX14" s="11"/>
+      <c r="DX14" s="11">
+        <v>4.5</v>
+      </c>
       <c r="DY14" s="11"/>
-      <c r="DZ14" s="11">
-        <v>4.5</v>
-      </c>
+      <c r="DZ14" s="11"/>
       <c r="EA14" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="EB14" s="11">
         <v>49</v>
       </c>
-      <c r="EB14" s="11">
+      <c r="EC14" s="11">
         <v>130</v>
       </c>
-      <c r="EC14" s="11">
+      <c r="ED14" s="11">
         <v>17</v>
       </c>
-      <c r="ED14" s="11"/>
       <c r="EE14" s="11"/>
-      <c r="EF14" s="11">
+      <c r="EF14" s="11"/>
+      <c r="EG14" s="11">
         <v>130</v>
       </c>
-      <c r="EG14" s="11">
-        <v>2</v>
-      </c>
       <c r="EH14" s="11">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="EI14" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="EJ14" s="11">
         <v>22</v>
       </c>
-      <c r="EJ14" s="11">
-        <v>2</v>
-      </c>
-      <c r="EK14" s="11"/>
+      <c r="EK14" s="11">
+        <v>2</v>
+      </c>
       <c r="EL14" s="11"/>
       <c r="EM14" s="11"/>
       <c r="EN14" s="11"/>
-      <c r="EO14" s="11">
-        <v>1.7</v>
-      </c>
-      <c r="EP14" s="11"/>
+      <c r="EO14" s="11"/>
+      <c r="EP14" s="11">
+        <v>1.7</v>
+      </c>
       <c r="EQ14" s="11"/>
-      <c r="ER14" s="11">
-        <v>2</v>
-      </c>
-      <c r="ES14" s="10"/>
-      <c r="ET14" s="10">
+      <c r="ER14" s="11"/>
+      <c r="ES14" s="11">
+        <v>2</v>
+      </c>
+      <c r="ET14" s="10"/>
+      <c r="EU14" s="10">
         <v>3.7</v>
       </c>
-      <c r="EU14" s="11">
-        <v>4.5</v>
-      </c>
-      <c r="EV14" s="10"/>
-      <c r="EW14" s="11">
+      <c r="EV14" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="EW14" s="10"/>
+      <c r="EX14" s="11">
         <v>13</v>
       </c>
-      <c r="EX14" s="11">
-        <v>7.8</v>
-      </c>
       <c r="EY14" s="11">
-        <v>2</v>
-      </c>
-      <c r="EZ14" s="11"/>
-      <c r="FA14" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="EZ14" s="11">
+        <v>2</v>
+      </c>
+      <c r="FA14" s="11"/>
+      <c r="FB14" s="11">
         <v>22</v>
       </c>
-      <c r="FB14" s="11">
-        <v>7.8</v>
-      </c>
       <c r="FC14" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="FD14" s="11">
         <v>17</v>
       </c>
-      <c r="FD14" s="11"/>
       <c r="FE14" s="11"/>
       <c r="FF14" s="11"/>
-      <c r="FG14" s="11">
-        <v>33</v>
-      </c>
+      <c r="FG14" s="11"/>
       <c r="FH14" s="11">
-        <v>4.5</v>
-      </c>
-      <c r="FI14" s="11"/>
-      <c r="FJ14" s="11">
-        <v>7.8</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="FI14" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="FJ14" s="11"/>
       <c r="FK14" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="FL14" s="11">
         <v>11</v>
       </c>
-      <c r="FL14" s="11">
+      <c r="FM14" s="11">
         <v>280</v>
       </c>
-      <c r="FM14" s="11"/>
-      <c r="FN14" s="11">
-        <v>2</v>
-      </c>
-      <c r="FO14" s="11"/>
+      <c r="FN14" s="11"/>
+      <c r="FO14" s="11">
+        <v>2</v>
+      </c>
       <c r="FP14" s="11"/>
-      <c r="FQ14" s="11">
-        <v>7.8</v>
-      </c>
-      <c r="FR14" s="11"/>
-      <c r="FS14" s="11">
+      <c r="FQ14" s="11"/>
+      <c r="FR14" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="FS14" s="11"/>
+      <c r="FT14" s="11">
         <v>23</v>
       </c>
-      <c r="FT14" s="11">
+      <c r="FU14" s="11">
         <v>13</v>
       </c>
-      <c r="FU14" s="11"/>
       <c r="FV14" s="11"/>
       <c r="FW14" s="11"/>
       <c r="FX14" s="11"/>
       <c r="FY14" s="11"/>
       <c r="FZ14" s="11"/>
       <c r="GA14" s="11"/>
-      <c r="GB14" s="11">
+      <c r="GB14" s="11"/>
+      <c r="GC14" s="11">
         <v>13</v>
       </c>
-      <c r="GC14" s="11"/>
-      <c r="GD14" s="11">
-        <v>4.5</v>
-      </c>
+      <c r="GD14" s="11"/>
       <c r="GE14" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="GF14" s="11">
         <v>17</v>
       </c>
-      <c r="GF14" s="11">
-        <v>4.5</v>
-      </c>
-      <c r="GG14" s="11"/>
+      <c r="GG14" s="11">
+        <v>4.5</v>
+      </c>
       <c r="GH14" s="11"/>
-      <c r="GI14" s="12"/>
+      <c r="GI14" s="11"/>
       <c r="GJ14" s="12"/>
       <c r="GK14" s="12"/>
-      <c r="GL14" s="12">
+      <c r="GL14" s="12"/>
+      <c r="GM14" s="12">
         <v>49</v>
       </c>
-      <c r="GM14" s="12">
-        <v>33</v>
-      </c>
       <c r="GN14" s="12">
         <v>33</v>
       </c>
       <c r="GO14" s="12">
+        <v>33</v>
+      </c>
+      <c r="GP14" s="12">
         <v>130</v>
       </c>
-      <c r="GP14" s="12">
+      <c r="GQ14" s="12">
         <v>23</v>
       </c>
-      <c r="GQ14" s="12">
+      <c r="GR14" s="12">
         <v>13</v>
       </c>
-      <c r="GR14" s="12">
-        <v>2</v>
-      </c>
       <c r="GS14" s="12">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="GT14" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="GU14" s="12"/>
+        <v>33</v>
+      </c>
+      <c r="GU14" s="12">
+        <v>4.5</v>
+      </c>
       <c r="GV14" s="12"/>
-      <c r="GW14" s="12">
+      <c r="GW14" s="12"/>
+      <c r="GX14" s="12">
         <v>13</v>
       </c>
-      <c r="GX14" s="12">
-        <v>33</v>
-      </c>
       <c r="GY14" s="12">
-        <v>7.8</v>
+        <v>33</v>
       </c>
       <c r="GZ14" s="12">
-        <v>4.5</v>
+        <v>7.8</v>
       </c>
       <c r="HA14" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="HB14" s="12">
         <v>17</v>
       </c>
-      <c r="HB14" s="12"/>
       <c r="HC14" s="12"/>
       <c r="HD14" s="12"/>
       <c r="HE14" s="12"/>
       <c r="HF14" s="12"/>
       <c r="HG14" s="12"/>
       <c r="HH14" s="12"/>
-      <c r="HI14" s="12">
+      <c r="HI14" s="12"/>
+      <c r="HJ14" s="12">
         <v>23</v>
       </c>
-      <c r="HJ14" s="12"/>
-      <c r="HK14" s="10"/>
-      <c r="HL14" s="12"/>
-      <c r="HM14" s="12">
-        <v>7.8</v>
-      </c>
-      <c r="HN14" s="12"/>
+      <c r="HK14" s="12"/>
+      <c r="HL14" s="10"/>
+      <c r="HM14" s="12"/>
+      <c r="HN14" s="12">
+        <v>7.8</v>
+      </c>
       <c r="HO14" s="12"/>
       <c r="HP14" s="12"/>
-      <c r="HQ14" s="12">
-        <v>49</v>
-      </c>
+      <c r="HQ14" s="12"/>
       <c r="HR14" s="12">
         <v>49</v>
       </c>
-      <c r="HS14" s="12"/>
+      <c r="HS14" s="12">
+        <v>49</v>
+      </c>
       <c r="HT14" s="12"/>
-      <c r="HU14" s="12">
-        <v>33</v>
-      </c>
+      <c r="HU14" s="12"/>
       <c r="HV14" s="12">
+        <v>33</v>
+      </c>
+      <c r="HW14" s="12">
         <v>22</v>
       </c>
-      <c r="HW14" s="12">
+      <c r="HX14" s="12">
         <v>79</v>
       </c>
-      <c r="HX14" s="12">
-        <v>7.8</v>
-      </c>
       <c r="HY14" s="12">
+        <v>7.8</v>
+      </c>
+      <c r="HZ14" s="12">
         <v>22</v>
       </c>
-      <c r="HZ14" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="IA14" s="12"/>
+      <c r="IA14" s="12">
+        <v>4.5</v>
+      </c>
       <c r="IB14" s="12"/>
       <c r="IC14" s="12"/>
       <c r="ID14" s="12"/>
@@ -6294,15 +6296,15 @@
       <c r="IN14" s="12"/>
       <c r="IO14" s="12"/>
       <c r="IP14" s="12"/>
-      <c r="IQ14" s="2"/>
+      <c r="IQ14" s="12"/>
       <c r="IR14" s="2"/>
       <c r="IS14" s="2"/>
       <c r="IT14" s="2"/>
       <c r="IU14" s="2"/>
       <c r="IV14" s="2"/>
+      <c r="IW14" s="2"/>
     </row>
-    <row r="15" spans="1:256">
-      <c r="A15" s="1"/>
+    <row r="15" spans="1:257">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -6492,7 +6494,7 @@
       <c r="GF15" s="1"/>
       <c r="GG15" s="1"/>
       <c r="GH15" s="1"/>
-      <c r="GI15" s="2"/>
+      <c r="GI15" s="1"/>
       <c r="GJ15" s="2"/>
       <c r="GK15" s="2"/>
       <c r="GL15" s="2"/>
@@ -6536,7 +6538,7 @@
       <c r="HX15" s="2"/>
       <c r="HY15" s="2"/>
       <c r="HZ15" s="2"/>
-      <c r="IA15" s="1"/>
+      <c r="IA15" s="2"/>
       <c r="IB15" s="1"/>
       <c r="IC15" s="1"/>
       <c r="ID15" s="1"/>
@@ -6558,9 +6560,9 @@
       <c r="IT15" s="1"/>
       <c r="IU15" s="1"/>
       <c r="IV15" s="1"/>
+      <c r="IW15" s="1"/>
     </row>
-    <row r="16" spans="1:256">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:257">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -6750,7 +6752,7 @@
       <c r="GF16" s="1"/>
       <c r="GG16" s="1"/>
       <c r="GH16" s="1"/>
-      <c r="GI16" s="2"/>
+      <c r="GI16" s="1"/>
       <c r="GJ16" s="2"/>
       <c r="GK16" s="2"/>
       <c r="GL16" s="2"/>
@@ -6794,7 +6796,7 @@
       <c r="HX16" s="2"/>
       <c r="HY16" s="2"/>
       <c r="HZ16" s="2"/>
-      <c r="IA16" s="1"/>
+      <c r="IA16" s="2"/>
       <c r="IB16" s="1"/>
       <c r="IC16" s="1"/>
       <c r="ID16" s="1"/>
@@ -6816,9 +6818,9 @@
       <c r="IT16" s="1"/>
       <c r="IU16" s="1"/>
       <c r="IV16" s="1"/>
+      <c r="IW16" s="1"/>
     </row>
-    <row r="17" spans="1:256">
-      <c r="A17" s="1"/>
+    <row r="17" spans="2:257">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -7008,7 +7010,7 @@
       <c r="GF17" s="1"/>
       <c r="GG17" s="1"/>
       <c r="GH17" s="1"/>
-      <c r="GI17" s="2"/>
+      <c r="GI17" s="1"/>
       <c r="GJ17" s="2"/>
       <c r="GK17" s="2"/>
       <c r="GL17" s="2"/>
@@ -7052,7 +7054,7 @@
       <c r="HX17" s="2"/>
       <c r="HY17" s="2"/>
       <c r="HZ17" s="2"/>
-      <c r="IA17" s="1"/>
+      <c r="IA17" s="2"/>
       <c r="IB17" s="1"/>
       <c r="IC17" s="1"/>
       <c r="ID17" s="1"/>
@@ -7074,9 +7076,9 @@
       <c r="IT17" s="1"/>
       <c r="IU17" s="1"/>
       <c r="IV17" s="1"/>
+      <c r="IW17" s="1"/>
     </row>
-    <row r="18" spans="1:256">
-      <c r="A18" s="1"/>
+    <row r="18" spans="2:257">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -7266,7 +7268,7 @@
       <c r="GF18" s="1"/>
       <c r="GG18" s="1"/>
       <c r="GH18" s="1"/>
-      <c r="GI18" s="2"/>
+      <c r="GI18" s="1"/>
       <c r="GJ18" s="2"/>
       <c r="GK18" s="2"/>
       <c r="GL18" s="2"/>
@@ -7310,7 +7312,7 @@
       <c r="HX18" s="2"/>
       <c r="HY18" s="2"/>
       <c r="HZ18" s="2"/>
-      <c r="IA18" s="1"/>
+      <c r="IA18" s="2"/>
       <c r="IB18" s="1"/>
       <c r="IC18" s="1"/>
       <c r="ID18" s="1"/>
@@ -7332,9 +7334,9 @@
       <c r="IT18" s="1"/>
       <c r="IU18" s="1"/>
       <c r="IV18" s="1"/>
+      <c r="IW18" s="1"/>
     </row>
-    <row r="19" spans="1:256">
-      <c r="GI19" s="3"/>
+    <row r="19" spans="2:257">
       <c r="GJ19" s="3"/>
       <c r="GK19" s="3"/>
       <c r="GL19" s="3"/>
@@ -7378,9 +7380,9 @@
       <c r="HX19" s="3"/>
       <c r="HY19" s="3"/>
       <c r="HZ19" s="3"/>
+      <c r="IA19" s="3"/>
     </row>
-    <row r="20" spans="1:256">
-      <c r="GI20" s="3"/>
+    <row r="20" spans="2:257">
       <c r="GJ20" s="3"/>
       <c r="GK20" s="3"/>
       <c r="GL20" s="3"/>
@@ -7424,9 +7426,9 @@
       <c r="HX20" s="3"/>
       <c r="HY20" s="3"/>
       <c r="HZ20" s="3"/>
+      <c r="IA20" s="3"/>
     </row>
-    <row r="21" spans="1:256">
-      <c r="GI21" s="3"/>
+    <row r="21" spans="2:257">
       <c r="GJ21" s="3"/>
       <c r="GK21" s="3"/>
       <c r="GL21" s="3"/>
@@ -7470,9 +7472,9 @@
       <c r="HX21" s="3"/>
       <c r="HY21" s="3"/>
       <c r="HZ21" s="3"/>
+      <c r="IA21" s="3"/>
     </row>
-    <row r="22" spans="1:256">
-      <c r="GI22" s="3"/>
+    <row r="22" spans="2:257">
       <c r="GJ22" s="3"/>
       <c r="GK22" s="3"/>
       <c r="GL22" s="3"/>
@@ -7516,9 +7518,9 @@
       <c r="HX22" s="3"/>
       <c r="HY22" s="3"/>
       <c r="HZ22" s="3"/>
+      <c r="IA22" s="3"/>
     </row>
-    <row r="23" spans="1:256">
-      <c r="GI23" s="3"/>
+    <row r="23" spans="2:257">
       <c r="GJ23" s="3"/>
       <c r="GK23" s="3"/>
       <c r="GL23" s="3"/>
@@ -7562,9 +7564,9 @@
       <c r="HX23" s="3"/>
       <c r="HY23" s="3"/>
       <c r="HZ23" s="3"/>
+      <c r="IA23" s="3"/>
     </row>
-    <row r="24" spans="1:256">
-      <c r="GI24" s="3"/>
+    <row r="24" spans="2:257">
       <c r="GJ24" s="3"/>
       <c r="GK24" s="3"/>
       <c r="GL24" s="3"/>
@@ -7608,9 +7610,9 @@
       <c r="HX24" s="3"/>
       <c r="HY24" s="3"/>
       <c r="HZ24" s="3"/>
+      <c r="IA24" s="3"/>
     </row>
-    <row r="25" spans="1:256">
-      <c r="GI25" s="3"/>
+    <row r="25" spans="2:257">
       <c r="GJ25" s="3"/>
       <c r="GK25" s="3"/>
       <c r="GL25" s="3"/>
@@ -7654,9 +7656,9 @@
       <c r="HX25" s="3"/>
       <c r="HY25" s="3"/>
       <c r="HZ25" s="3"/>
+      <c r="IA25" s="3"/>
     </row>
-    <row r="26" spans="1:256">
-      <c r="GI26" s="3"/>
+    <row r="26" spans="2:257">
       <c r="GJ26" s="3"/>
       <c r="GK26" s="3"/>
       <c r="GL26" s="3"/>
@@ -7700,9 +7702,9 @@
       <c r="HX26" s="3"/>
       <c r="HY26" s="3"/>
       <c r="HZ26" s="3"/>
+      <c r="IA26" s="3"/>
     </row>
-    <row r="27" spans="1:256">
-      <c r="GI27" s="3"/>
+    <row r="27" spans="2:257">
       <c r="GJ27" s="3"/>
       <c r="GK27" s="3"/>
       <c r="GL27" s="3"/>
@@ -7746,9 +7748,9 @@
       <c r="HX27" s="3"/>
       <c r="HY27" s="3"/>
       <c r="HZ27" s="3"/>
+      <c r="IA27" s="3"/>
     </row>
-    <row r="28" spans="1:256">
-      <c r="GI28" s="3"/>
+    <row r="28" spans="2:257">
       <c r="GJ28" s="3"/>
       <c r="GK28" s="3"/>
       <c r="GL28" s="3"/>
@@ -7792,9 +7794,9 @@
       <c r="HX28" s="3"/>
       <c r="HY28" s="3"/>
       <c r="HZ28" s="3"/>
+      <c r="IA28" s="3"/>
     </row>
-    <row r="29" spans="1:256">
-      <c r="GI29" s="3"/>
+    <row r="29" spans="2:257">
       <c r="GJ29" s="3"/>
       <c r="GK29" s="3"/>
       <c r="GL29" s="3"/>
@@ -7838,9 +7840,9 @@
       <c r="HX29" s="3"/>
       <c r="HY29" s="3"/>
       <c r="HZ29" s="3"/>
+      <c r="IA29" s="3"/>
     </row>
-    <row r="30" spans="1:256">
-      <c r="GI30" s="3"/>
+    <row r="30" spans="2:257">
       <c r="GJ30" s="3"/>
       <c r="GK30" s="3"/>
       <c r="GL30" s="3"/>
@@ -7884,6 +7886,7 @@
       <c r="HX30" s="3"/>
       <c r="HY30" s="3"/>
       <c r="HZ30" s="3"/>
+      <c r="IA30" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -7903,7 +7906,7 @@
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JX5" sqref="JX5"/>
+      <selection pane="topRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -8773,7 +8776,9 @@
       <c r="A2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="C2" s="22"/>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
